--- a/input_data/Manuscript_3_figures.xlsx
+++ b/input_data/Manuscript_3_figures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rita\Documents\R\Manuscript_3\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD42DF8-364A-4580-955D-E543E1B129EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA40E52-CFA3-40D9-A63B-6EC07463C401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6325" uniqueCount="56">
   <si>
     <t>community</t>
   </si>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AM1" sqref="A1:AM1"/>
+    <sheetView tabSelected="1" topLeftCell="Q396" workbookViewId="0">
+      <selection activeCell="G410" sqref="G410:AL421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,7 +1465,7 @@
         <v>2.2252066115702478</v>
       </c>
       <c r="AD8" s="1">
-        <v>-7.6107689270596968E-3</v>
+        <v>7.6107689270596968E-3</v>
       </c>
       <c r="AE8" s="1">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>2.2268602540834843</v>
       </c>
       <c r="AD9" s="1">
-        <v>-7.5113403522064637E-3</v>
+        <v>7.5113403522064637E-3</v>
       </c>
       <c r="AE9" s="1">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>2.5056179775280896</v>
       </c>
       <c r="AD10" s="1">
-        <v>-7.5159827133635115E-3</v>
+        <v>7.5159827133635115E-3</v>
       </c>
       <c r="AE10" s="1">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>1.6859504132231404</v>
       </c>
       <c r="AD11" s="1">
-        <v>-7.6107689270596968E-3</v>
+        <v>7.6107689270596968E-3</v>
       </c>
       <c r="AE11" s="1">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>1.2849364791288564</v>
       </c>
       <c r="AD12" s="1">
-        <v>-7.5113403522064637E-3</v>
+        <v>7.5113403522064637E-3</v>
       </c>
       <c r="AE12" s="1">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>1.5112359550561798</v>
       </c>
       <c r="AD13" s="1">
-        <v>-7.5159827133635115E-3</v>
+        <v>7.5159827133635115E-3</v>
       </c>
       <c r="AE13" s="1">
         <v>0</v>
@@ -2179,7 +2179,7 @@
         <v>1.6549586776859506</v>
       </c>
       <c r="AD14" s="1">
-        <v>-1.4421055025363838E-2</v>
+        <v>1.4421055025363838E-2</v>
       </c>
       <c r="AE14" s="1">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>1.7096188747731396</v>
       </c>
       <c r="AD15" s="1">
-        <v>-7.5113403522064637E-3</v>
+        <v>7.5113403522064637E-3</v>
       </c>
       <c r="AE15" s="1">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>1.5617977528089886</v>
       </c>
       <c r="AD16" s="1">
-        <v>-1.0318638748627595E-3</v>
+        <v>1.0318638748627595E-3</v>
       </c>
       <c r="AE16" s="1">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>1.6177685950413225</v>
       </c>
       <c r="AD17" s="1">
-        <v>-1.4421055025363838E-2</v>
+        <v>1.4421055025363838E-2</v>
       </c>
       <c r="AE17" s="1">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>1.6225045372050815</v>
       </c>
       <c r="AD18" s="1">
-        <v>-7.5113403522064637E-3</v>
+        <v>7.5113403522064637E-3</v>
       </c>
       <c r="AE18" s="1">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>1.696629213483146</v>
       </c>
       <c r="AD19" s="1">
-        <v>-1.1321299145884423E-2</v>
+        <v>1.1321299145884423E-2</v>
       </c>
       <c r="AE19" s="1">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>2.3760330578512394</v>
       </c>
       <c r="AD20" s="1">
-        <v>-1.4421055025363838E-2</v>
+        <v>1.4421055025363838E-2</v>
       </c>
       <c r="AE20" s="1">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>2.4773139745916515</v>
       </c>
       <c r="AD21" s="1">
-        <v>2.7774727013012424E-3</v>
+        <v>-2.7774727013012424E-3</v>
       </c>
       <c r="AE21" s="1">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>1.9288389513108615</v>
       </c>
       <c r="AD22" s="1">
-        <v>-1.1321299145884423E-2</v>
+        <v>1.1321299145884423E-2</v>
       </c>
       <c r="AE22" s="1">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>1.1077235772357723</v>
       </c>
       <c r="AD26" s="1">
-        <v>-7.5329612643584287E-3</v>
+        <v>7.5329612643584287E-3</v>
       </c>
       <c r="AE26" s="1">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>1.0388170055452866</v>
       </c>
       <c r="AD27" s="1">
-        <v>-8.0405257236328964E-3</v>
+        <v>8.0405257236328964E-3</v>
       </c>
       <c r="AE27" s="1">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>1.3170731707317074</v>
       </c>
       <c r="AD29" s="1">
-        <v>-2.1861770875140296E-2</v>
+        <v>2.1861770875140296E-2</v>
       </c>
       <c r="AE29" s="1">
         <v>0</v>
@@ -4083,7 +4083,7 @@
         <v>1.2421441774491682</v>
       </c>
       <c r="AD30" s="1">
-        <v>-8.0405257236328964E-3</v>
+        <v>8.0405257236328964E-3</v>
       </c>
       <c r="AE30" s="1">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>1.2226211849192099</v>
       </c>
       <c r="AD31" s="1">
-        <v>-7.2176828075565247E-3</v>
+        <v>7.2176828075565247E-3</v>
       </c>
       <c r="AE31" s="1">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>1.1382113821138211</v>
       </c>
       <c r="AD32" s="1">
-        <v>-9.4767254152325897E-3</v>
+        <v>9.4767254152325897E-3</v>
       </c>
       <c r="AE32" s="1">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>1.1275415896487984</v>
       </c>
       <c r="AD33" s="1">
-        <v>-1.4957090635580261E-2</v>
+        <v>1.4957090635580261E-2</v>
       </c>
       <c r="AE33" s="1">
         <v>0</v>
@@ -4559,7 +4559,7 @@
         <v>1.0502692998204666</v>
       </c>
       <c r="AD34" s="1">
-        <v>-7.2176828075565247E-3</v>
+        <v>7.2176828075565247E-3</v>
       </c>
       <c r="AE34" s="1">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>1.2195121951219512</v>
       </c>
       <c r="AD35" s="1">
-        <v>-3.8031214315443762E-3</v>
+        <v>3.8031214315443762E-3</v>
       </c>
       <c r="AE35" s="1">
         <v>0</v>
@@ -4797,7 +4797,7 @@
         <v>1.0258780036968576</v>
       </c>
       <c r="AD36" s="1">
-        <v>-9.1563470668238889E-3</v>
+        <v>9.1563470668238889E-3</v>
       </c>
       <c r="AE36" s="1">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>1.0682226211849193</v>
       </c>
       <c r="AD37" s="1">
-        <v>-1.2742303839937241E-2</v>
+        <v>1.2742303839937241E-2</v>
       </c>
       <c r="AE37" s="1">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>1.25</v>
       </c>
       <c r="AD38" s="1">
-        <v>5.5967536315744137E-3</v>
+        <v>-5.5967536315744137E-3</v>
       </c>
       <c r="AE38" s="1">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>1.0536044362292052</v>
       </c>
       <c r="AD39" s="1">
-        <v>-9.1563470668238889E-3</v>
+        <v>9.1563470668238889E-3</v>
       </c>
       <c r="AE39" s="1">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>1.0233393177737882</v>
       </c>
       <c r="AD40" s="1">
-        <v>-1.2742303839937241E-2</v>
+        <v>1.2742303839937241E-2</v>
       </c>
       <c r="AE40" s="1">
         <v>0</v>
@@ -5392,7 +5392,7 @@
         <v>1.1077235772357723</v>
       </c>
       <c r="AD41" s="1">
-        <v>-3.525428498006189E-3</v>
+        <v>3.525428498006189E-3</v>
       </c>
       <c r="AE41" s="1">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0.99815157116451025</v>
       </c>
       <c r="AD42" s="1">
-        <v>-9.1563470668238889E-3</v>
+        <v>9.1563470668238889E-3</v>
       </c>
       <c r="AE42" s="1">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0.9874326750448833</v>
       </c>
       <c r="AD43" s="1">
-        <v>-1.2742303839937241E-2</v>
+        <v>1.2742303839937241E-2</v>
       </c>
       <c r="AE43" s="1">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>0.1205574912891986</v>
       </c>
       <c r="AD47" s="1">
-        <v>-3.3300970664475793E-2</v>
+        <v>3.3300970664475793E-2</v>
       </c>
       <c r="AE47" s="1">
         <v>7.8177601146711323E-2</v>
@@ -6225,7 +6225,7 @@
         <v>0.12347972972972973</v>
       </c>
       <c r="AD48" s="1">
-        <v>-4.0318469519843081E-2</v>
+        <v>4.0318469519843081E-2</v>
       </c>
       <c r="AE48" s="1">
         <v>7.4612132343043897E-2</v>
@@ -6344,7 +6344,7 @@
         <v>0.12406143344709897</v>
       </c>
       <c r="AD49" s="1">
-        <v>-3.343999046790147E-2</v>
+        <v>3.343999046790147E-2</v>
       </c>
       <c r="AE49" s="1">
         <v>7.7353785500006156E-2</v>
@@ -6463,7 +6463,7 @@
         <v>0.24721254355400696</v>
       </c>
       <c r="AD50" s="1">
-        <v>-7.3689512731345719E-2</v>
+        <v>7.3689512731345719E-2</v>
       </c>
       <c r="AE50" s="1">
         <v>0.1374919827648764</v>
@@ -6582,7 +6582,7 @@
         <v>0.23310810810810809</v>
       </c>
       <c r="AD51" s="1">
-        <v>-7.563433778019979E-2</v>
+        <v>7.563433778019979E-2</v>
       </c>
       <c r="AE51" s="1">
         <v>0.1272167552571376</v>
@@ -6701,7 +6701,7 @@
         <v>0.22576791808873714</v>
       </c>
       <c r="AD52" s="1">
-        <v>-8.2534410511355905E-2</v>
+        <v>8.2534410511355905E-2</v>
       </c>
       <c r="AE52" s="1">
         <v>0.13576713074152263</v>
@@ -6820,7 +6820,7 @@
         <v>0.16620209059233448</v>
       </c>
       <c r="AD53" s="1">
-        <v>-8.130840305640108E-2</v>
+        <v>8.130840305640108E-2</v>
       </c>
       <c r="AE53" s="1">
         <v>0.1511374768334891</v>
@@ -6939,7 +6939,7 @@
         <v>0.15202702702702703</v>
       </c>
       <c r="AD54" s="1">
-        <v>-8.9129876359966831E-2</v>
+        <v>8.9129876359966831E-2</v>
       </c>
       <c r="AE54" s="1">
         <v>0.15172360658893969</v>
@@ -7058,7 +7058,7 @@
         <v>0.16279863481228668</v>
       </c>
       <c r="AD55" s="1">
-        <v>-9.0130884930780253E-2</v>
+        <v>9.0130884930780253E-2</v>
       </c>
       <c r="AE55" s="1">
         <v>0.14918630939573069</v>
@@ -7177,7 +7177,7 @@
         <v>0.12334494773519163</v>
       </c>
       <c r="AD56" s="1">
-        <v>-8.130840305640108E-2</v>
+        <v>8.130840305640108E-2</v>
       </c>
       <c r="AE56" s="1">
         <v>0.17160086673399691</v>
@@ -7296,7 +7296,7 @@
         <v>0.1535472972972973</v>
       </c>
       <c r="AD57" s="1">
-        <v>-8.9129876359966831E-2</v>
+        <v>8.9129876359966831E-2</v>
       </c>
       <c r="AE57" s="1">
         <v>0.16204067568723635</v>
@@ -7415,7 +7415,7 @@
         <v>0.16740614334470988</v>
       </c>
       <c r="AD58" s="1">
-        <v>-9.0130884930780253E-2</v>
+        <v>9.0130884930780253E-2</v>
       </c>
       <c r="AE58" s="1">
         <v>0.16401533464725859</v>
@@ -7534,7 +7534,7 @@
         <v>0.18972125435540069</v>
       </c>
       <c r="AD59" s="1">
-        <v>-8.130840305640108E-2</v>
+        <v>8.130840305640108E-2</v>
       </c>
       <c r="AE59" s="1">
         <v>0.16384387594870412</v>
@@ -7772,7 +7772,7 @@
         <v>0.16791808873720135</v>
       </c>
       <c r="AD61" s="1">
-        <v>-9.0130884930780253E-2</v>
+        <v>9.0130884930780253E-2</v>
       </c>
       <c r="AE61" s="1">
         <v>0.15532369441927277</v>
@@ -7891,7 +7891,7 @@
         <v>0.20034843205574909</v>
       </c>
       <c r="AD62" s="1">
-        <v>-8.130840305640108E-2</v>
+        <v>8.130840305640108E-2</v>
       </c>
       <c r="AE62" s="1">
         <v>0.17478658419050216</v>
@@ -8129,7 +8129,7 @@
         <v>0.1979522184300341</v>
       </c>
       <c r="AD64" s="1">
-        <v>-9.0130884930780253E-2</v>
+        <v>9.0130884930780253E-2</v>
       </c>
       <c r="AE64" s="1">
         <v>0.16422812970394629</v>
@@ -8605,7 +8605,7 @@
         <v>0.14972677595628414</v>
       </c>
       <c r="AD68" s="1">
-        <v>-5.5818765826374239E-2</v>
+        <v>5.5818765826374239E-2</v>
       </c>
       <c r="AE68" s="1">
         <v>7.5999040737670429E-2</v>
@@ -8724,7 +8724,7 @@
         <v>0.13959484346224679</v>
       </c>
       <c r="AD69" s="1">
-        <v>-5.7669168371479618E-2</v>
+        <v>5.7669168371479618E-2</v>
       </c>
       <c r="AE69" s="1">
         <v>7.2258880049984653E-2</v>
@@ -8843,7 +8843,7 @@
         <v>0.1267924528301887</v>
       </c>
       <c r="AD70" s="1">
-        <v>-5.780885440761141E-2</v>
+        <v>5.780885440761141E-2</v>
       </c>
       <c r="AE70" s="1">
         <v>7.6413790131904816E-2</v>
@@ -8962,7 +8962,7 @@
         <v>0.26612021857923496</v>
       </c>
       <c r="AD71" s="1">
-        <v>-7.8995079259583934E-2</v>
+        <v>7.8995079259583934E-2</v>
       </c>
       <c r="AE71" s="1">
         <v>0.11844328901773499</v>
@@ -9081,7 +9081,7 @@
         <v>0.27900552486187846</v>
       </c>
       <c r="AD72" s="1">
-        <v>-7.0829258945898088E-2</v>
+        <v>7.0829258945898088E-2</v>
       </c>
       <c r="AE72" s="1">
         <v>9.3913338764042134E-2</v>
@@ -9200,7 +9200,7 @@
         <v>0.25528301886792448</v>
       </c>
       <c r="AD73" s="1">
-        <v>-7.3899654510383606E-2</v>
+        <v>7.3899654510383606E-2</v>
       </c>
       <c r="AE73" s="1">
         <v>0.10252074135652758</v>
@@ -9319,7 +9319,7 @@
         <v>0.18196721311475408</v>
       </c>
       <c r="AD74" s="1">
-        <v>-7.8995079259583934E-2</v>
+        <v>7.8995079259583934E-2</v>
       </c>
       <c r="AE74" s="1">
         <v>0.11394111727927755</v>
@@ -9438,7 +9438,7 @@
         <v>0.15082872928176796</v>
       </c>
       <c r="AD75" s="1">
-        <v>-7.6768315657209873E-2</v>
+        <v>7.6768315657209873E-2</v>
       </c>
       <c r="AE75" s="1">
         <v>0.11164150294320301</v>
@@ -9557,7 +9557,7 @@
         <v>0.1811320754716981</v>
       </c>
       <c r="AD76" s="1">
-        <v>-8.882201652954258E-2</v>
+        <v>8.882201652954258E-2</v>
       </c>
       <c r="AE76" s="1">
         <v>0.11130752984206665</v>
@@ -9676,7 +9676,7 @@
         <v>0.15519125683060109</v>
       </c>
       <c r="AD77" s="1">
-        <v>-7.8995079259583934E-2</v>
+        <v>7.8995079259583934E-2</v>
       </c>
       <c r="AE77" s="1">
         <v>0.12520228750693191</v>
@@ -9795,7 +9795,7 @@
         <v>0.16132596685082873</v>
       </c>
       <c r="AD78" s="1">
-        <v>-8.2400356994990931E-2</v>
+        <v>8.2400356994990931E-2</v>
       </c>
       <c r="AE78" s="1">
         <v>0.11758885179858475</v>
@@ -9914,7 +9914,7 @@
         <v>0.16358490566037737</v>
       </c>
       <c r="AD79" s="1">
-        <v>-8.1823452379547579E-2</v>
+        <v>8.1823452379547579E-2</v>
       </c>
       <c r="AE79" s="1">
         <v>0.1222443562889135</v>
@@ -10033,7 +10033,7 @@
         <v>0.16120218579234971</v>
       </c>
       <c r="AD80" s="1">
-        <v>-7.8995079259583934E-2</v>
+        <v>7.8995079259583934E-2</v>
       </c>
       <c r="AE80" s="1">
         <v>0.12492584682075927</v>
@@ -10152,7 +10152,7 @@
         <v>0.16629834254143647</v>
       </c>
       <c r="AD81" s="1">
-        <v>-8.2400356994990931E-2</v>
+        <v>8.2400356994990931E-2</v>
       </c>
       <c r="AE81" s="1">
         <v>0.1186892263541483</v>
@@ -10271,7 +10271,7 @@
         <v>0.25132075471698118</v>
       </c>
       <c r="AD82" s="1">
-        <v>-8.1823452379547579E-2</v>
+        <v>8.1823452379547579E-2</v>
       </c>
       <c r="AE82" s="1">
         <v>0.12081202983810363</v>
@@ -10390,7 +10390,7 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="AD83" s="1">
-        <v>-7.8995079259583934E-2</v>
+        <v>7.8995079259583934E-2</v>
       </c>
       <c r="AE83" s="1">
         <v>0.12936100091636241</v>
@@ -10509,7 +10509,7 @@
         <v>0.212707182320442</v>
       </c>
       <c r="AD84" s="1">
-        <v>-8.2400356994990931E-2</v>
+        <v>8.2400356994990931E-2</v>
       </c>
       <c r="AE84" s="1">
         <v>0.12314398231897214</v>
@@ -10628,7 +10628,7 @@
         <v>0.20283018867924529</v>
       </c>
       <c r="AD85" s="1">
-        <v>-8.1823452379547579E-2</v>
+        <v>8.1823452379547579E-2</v>
       </c>
       <c r="AE85" s="1">
         <v>0.12507897077852656</v>
@@ -11104,7 +11104,7 @@
         <v>1.0272727272727273</v>
       </c>
       <c r="AD89" s="1">
-        <v>-6.3502042395415792E-3</v>
+        <v>6.3502042395415792E-3</v>
       </c>
       <c r="AE89" s="1">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0.9690949227373068</v>
       </c>
       <c r="AD90" s="1">
-        <v>-6.4276557164204551E-3</v>
+        <v>6.4276557164204551E-3</v>
       </c>
       <c r="AE90" s="1">
         <v>0</v>
@@ -11342,7 +11342,7 @@
         <v>0.98917748917748927</v>
       </c>
       <c r="AD91" s="1">
-        <v>-6.439177545862762E-3</v>
+        <v>6.439177545862762E-3</v>
       </c>
       <c r="AE91" s="1">
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>0.74772727272727257</v>
       </c>
       <c r="AD92" s="1">
-        <v>-7.378777783017143E-2</v>
+        <v>7.378777783017143E-2</v>
       </c>
       <c r="AE92" s="1">
         <v>8.3071236350822114E-2</v>
@@ -11580,7 +11580,7 @@
         <v>0.7483443708609272</v>
       </c>
       <c r="AD93" s="1">
-        <v>-7.3472830990261473E-2</v>
+        <v>7.3472830990261473E-2</v>
       </c>
       <c r="AE93" s="1">
         <v>8.4587865296139958E-2</v>
@@ -11699,7 +11699,7 @@
         <v>0.80952380952380965</v>
       </c>
       <c r="AD94" s="1">
-        <v>-6.6304281869846271E-2</v>
+        <v>6.6304281869846271E-2</v>
       </c>
       <c r="AE94" s="1">
         <v>7.7543203709168618E-2</v>
@@ -11748,83 +11748,83 @@
       <c r="F95">
         <v>33</v>
       </c>
-      <c r="G95" s="2">
-        <v>1.1037866450107952</v>
-      </c>
-      <c r="H95" s="2">
-        <v>1.1300000000000001</v>
-      </c>
-      <c r="I95" s="2">
-        <v>1.104335598298082</v>
-      </c>
-      <c r="J95" s="2">
-        <v>1.029126213592233</v>
-      </c>
-      <c r="K95" s="2">
-        <v>0.85321100917431192</v>
-      </c>
-      <c r="L95" s="2">
-        <v>0.95548704219702985</v>
-      </c>
-      <c r="M95" s="2">
-        <v>1.1002943024369956</v>
-      </c>
-      <c r="N95" s="2">
-        <v>1.2547169811320755</v>
-      </c>
-      <c r="O95" s="2">
-        <v>1.2516925528060752</v>
-      </c>
-      <c r="P95" s="2">
-        <v>1.1642410453141754</v>
-      </c>
-      <c r="Q95" s="2">
-        <v>1.1693372643044906</v>
-      </c>
-      <c r="R95" s="2">
-        <v>0.94174476425473796</v>
-      </c>
-      <c r="S95" s="2">
-        <v>1.0617638679921992</v>
-      </c>
-      <c r="T95" s="2">
-        <v>1.0761520772976823</v>
-      </c>
-      <c r="U95" s="2">
-        <v>2.4275997655108426</v>
-      </c>
-      <c r="V95" s="2">
-        <v>0</v>
-      </c>
-      <c r="W95" s="2">
-        <v>0.28297362110311752</v>
-      </c>
-      <c r="X95" s="2">
-        <v>1.5860215053763442</v>
-      </c>
-      <c r="Y95" s="2">
-        <v>0.86363636363636354</v>
-      </c>
-      <c r="Z95" s="2">
-        <v>1.5043290043290048E-2</v>
-      </c>
-      <c r="AA95" s="2">
-        <v>0.64280215550423403</v>
+      <c r="G95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA95" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB95" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC95" s="2">
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="AD95" s="1">
-        <v>-9.8859234686133224E-2</v>
-      </c>
-      <c r="AE95" s="1">
-        <v>0.12349401052991818</v>
-      </c>
-      <c r="AF95" s="1">
-        <v>0.98379162970728196</v>
+      <c r="AC95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE95" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF95" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AG95" s="1" t="s">
         <v>41</v>
@@ -11867,83 +11867,83 @@
       <c r="F96">
         <v>33</v>
       </c>
-      <c r="G96" s="2">
-        <v>0.95224951587256079</v>
-      </c>
-      <c r="H96" s="2">
-        <v>0.85993485342019538</v>
-      </c>
-      <c r="I96" s="2">
-        <v>0.96322867568262016</v>
-      </c>
-      <c r="J96" s="2">
-        <v>1.2090909090909092</v>
-      </c>
-      <c r="K96" s="2">
-        <v>0.95495495495495497</v>
-      </c>
-      <c r="L96" s="2">
-        <v>1.1103178681571144</v>
-      </c>
-      <c r="M96" s="2">
-        <v>0.99481772061352347</v>
-      </c>
-      <c r="N96" s="2">
-        <v>1.0677966101694913</v>
-      </c>
-      <c r="O96" s="2">
-        <v>1.3008682418264423</v>
-      </c>
-      <c r="P96" s="2">
-        <v>1.0487297470424732</v>
-      </c>
-      <c r="Q96" s="2">
-        <v>0.93433375117874418</v>
-      </c>
-      <c r="R96" s="2">
-        <v>1.0157767749964801</v>
-      </c>
-      <c r="S96" s="2">
-        <v>0.83755361356550595</v>
-      </c>
-      <c r="T96" s="2">
-        <v>1.6276469894498817</v>
-      </c>
-      <c r="U96" s="2">
-        <v>1.2359999566570958</v>
-      </c>
-      <c r="V96" s="2">
-        <v>0</v>
-      </c>
-      <c r="W96" s="2">
-        <v>0.52564102564102566</v>
-      </c>
-      <c r="X96" s="2">
-        <v>1.4453125</v>
-      </c>
-      <c r="Y96" s="2">
-        <v>0.69892473118279586</v>
-      </c>
-      <c r="Z96" s="2">
-        <v>1.6877637130801686E-2</v>
-      </c>
-      <c r="AA96" s="2">
-        <v>0.69758672699849167</v>
+      <c r="G96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA96" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB96" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC96" s="2">
-        <v>0.61810154525386318</v>
-      </c>
-      <c r="AD96" s="1">
-        <v>-9.0936940451530779E-2</v>
-      </c>
-      <c r="AE96" s="1">
-        <v>0.11404609391128943</v>
-      </c>
-      <c r="AF96" s="1">
-        <v>0.88541246673655216</v>
+      <c r="AC96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE96" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF96" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AG96" s="1" t="s">
         <v>41</v>
@@ -11986,83 +11986,83 @@
       <c r="F97">
         <v>33</v>
       </c>
-      <c r="G97" s="2">
-        <v>0.96242665104808323</v>
-      </c>
-      <c r="H97" s="2">
-        <v>0.82654249126891732</v>
-      </c>
-      <c r="I97" s="2">
-        <v>0.93909305503334783</v>
-      </c>
-      <c r="J97" s="2">
-        <v>0.85178571428571426</v>
-      </c>
-      <c r="K97" s="2">
-        <v>0.90370370370370368</v>
-      </c>
-      <c r="L97" s="2">
-        <v>0.94836720610571068</v>
-      </c>
-      <c r="M97" s="2">
-        <v>1.0142730637777171</v>
-      </c>
-      <c r="N97" s="2">
-        <v>0.9609375</v>
-      </c>
-      <c r="O97" s="2">
-        <v>1.2769936795400414</v>
-      </c>
-      <c r="P97" s="2">
-        <v>0.9824655800440526</v>
-      </c>
-      <c r="Q97" s="2">
-        <v>1.0069539175397206</v>
-      </c>
-      <c r="R97" s="2">
-        <v>0.95597636170664824</v>
-      </c>
-      <c r="S97" s="2">
-        <v>1.0400409676956877</v>
-      </c>
-      <c r="T97" s="2">
-        <v>0.98692885475438841</v>
-      </c>
-      <c r="U97" s="2">
-        <v>1.8046957758927256</v>
-      </c>
-      <c r="V97" s="2">
-        <v>0</v>
-      </c>
-      <c r="W97" s="2">
-        <v>0.86689814814814814</v>
-      </c>
-      <c r="X97" s="2">
-        <v>1.214102564102564</v>
-      </c>
-      <c r="Y97" s="2">
-        <v>0.87755102040816335</v>
-      </c>
-      <c r="Z97" s="2">
-        <v>1.737804878048781E-2</v>
-      </c>
-      <c r="AA97" s="2">
-        <v>0.70740740740740748</v>
+      <c r="G97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA97" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB97" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC97" s="2">
-        <v>0.6637806637806638</v>
-      </c>
-      <c r="AD97" s="1">
-        <v>-8.1842554602852724E-2</v>
-      </c>
-      <c r="AE97" s="1">
-        <v>9.9384664309099646E-2</v>
-      </c>
-      <c r="AF97" s="1">
-        <v>1.180549955648738</v>
+      <c r="AC97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE97" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF97" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AG97" s="1" t="s">
         <v>41</v>
@@ -12105,83 +12105,83 @@
       <c r="F98">
         <v>47</v>
       </c>
-      <c r="G98" s="2">
-        <v>0.93083430545091783</v>
-      </c>
-      <c r="H98" s="2">
-        <v>0.9642857142857143</v>
-      </c>
-      <c r="I98" s="2">
-        <v>0.96368105321137953</v>
-      </c>
-      <c r="J98" s="2">
-        <v>1.0485436893203883</v>
-      </c>
-      <c r="K98" s="2">
-        <v>0.69266055045871555</v>
-      </c>
-      <c r="L98" s="2">
-        <v>0.96769117567353469</v>
-      </c>
-      <c r="M98" s="2">
-        <v>1.0630625538892051</v>
-      </c>
-      <c r="N98" s="2">
-        <v>0.84056603773584915</v>
-      </c>
-      <c r="O98" s="2">
-        <v>1.1467706690601804</v>
-      </c>
-      <c r="P98" s="2">
-        <v>0.93629633881260854</v>
-      </c>
-      <c r="Q98" s="2">
-        <v>1.0390105519036659</v>
-      </c>
-      <c r="R98" s="2">
-        <v>0.88111638000427561</v>
-      </c>
-      <c r="S98" s="2">
-        <v>1.1803287621471499</v>
-      </c>
-      <c r="T98" s="2">
-        <v>0.96352578352639207</v>
-      </c>
-      <c r="U98" s="2">
-        <v>1.1793578197878145</v>
-      </c>
-      <c r="V98" s="2">
-        <v>0</v>
-      </c>
-      <c r="W98" s="2">
-        <v>4.3165467625899283E-2</v>
-      </c>
-      <c r="X98" s="2">
-        <v>1.706989247311828</v>
-      </c>
-      <c r="Y98" s="2">
-        <v>1.2121212121212122</v>
-      </c>
-      <c r="Z98" s="2">
-        <v>1.5800865800865798E-2</v>
-      </c>
-      <c r="AA98" s="2">
-        <v>0.60816012317167056</v>
+      <c r="G98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA98" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB98" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC98" s="2">
-        <v>0.56060606060606055</v>
-      </c>
-      <c r="AD98" s="1">
-        <v>-0.12240089192323322</v>
-      </c>
-      <c r="AE98" s="1">
-        <v>0.16062440893731778</v>
-      </c>
-      <c r="AF98" s="1">
-        <v>0.19675832594145604</v>
+      <c r="AC98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF98" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AG98" s="1" t="s">
         <v>41</v>
@@ -12224,83 +12224,83 @@
       <c r="F99">
         <v>47</v>
       </c>
-      <c r="G99" s="2">
-        <v>0.92136138896298658</v>
-      </c>
-      <c r="H99" s="2">
-        <v>0.86862106406080342</v>
-      </c>
-      <c r="I99" s="2">
-        <v>0.94601986010861705</v>
-      </c>
-      <c r="J99" s="2">
-        <v>0.74545454545454537</v>
-      </c>
-      <c r="K99" s="2">
-        <v>0.85765765765765767</v>
-      </c>
-      <c r="L99" s="2">
-        <v>1.131861612853456</v>
-      </c>
-      <c r="M99" s="2">
-        <v>0.98075509569972774</v>
-      </c>
-      <c r="N99" s="2">
-        <v>0.64237288135593218</v>
-      </c>
-      <c r="O99" s="2">
-        <v>1.123716768282339</v>
-      </c>
-      <c r="P99" s="2">
-        <v>0.95981826001365855</v>
-      </c>
-      <c r="Q99" s="2">
-        <v>0.88150719735509531</v>
-      </c>
-      <c r="R99" s="2">
-        <v>0.99172128560992978</v>
-      </c>
-      <c r="S99" s="2">
-        <v>0.85487677216861191</v>
-      </c>
-      <c r="T99" s="2">
-        <v>1.0028561591037208</v>
-      </c>
-      <c r="U99" s="2">
-        <v>1.3392323150957381</v>
-      </c>
-      <c r="V99" s="2">
-        <v>0</v>
-      </c>
-      <c r="W99" s="2">
-        <v>0.15034965034965037</v>
-      </c>
-      <c r="X99" s="2">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="Y99" s="2">
-        <v>0.80645161290322587</v>
-      </c>
-      <c r="Z99" s="2">
-        <v>1.3080168776371309E-2</v>
-      </c>
-      <c r="AA99" s="2">
-        <v>0.59954751131221717</v>
+      <c r="G99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA99" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB99" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC99" s="2">
-        <v>0.56659308314937451</v>
-      </c>
-      <c r="AD99" s="1">
-        <v>-0.10031731647780429</v>
-      </c>
-      <c r="AE99" s="1">
-        <v>0.15267788445324143</v>
-      </c>
-      <c r="AF99" s="1">
-        <v>0.29513748891218583</v>
+      <c r="AC99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE99" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF99" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AG99" s="1" t="s">
         <v>41</v>
@@ -12343,83 +12343,83 @@
       <c r="F100">
         <v>47</v>
       </c>
-      <c r="G100" s="2">
-        <v>0.93332597771886483</v>
-      </c>
-      <c r="H100" s="2">
-        <v>0.95925494761350416</v>
-      </c>
-      <c r="I100" s="2">
-        <v>0.9615005955250866</v>
-      </c>
-      <c r="J100" s="2">
-        <v>0.84732142857142867</v>
-      </c>
-      <c r="K100" s="2">
-        <v>0.62685185185185177</v>
-      </c>
-      <c r="L100" s="2">
-        <v>1.0594705641390936</v>
-      </c>
-      <c r="M100" s="2">
-        <v>0.99234870949913767</v>
-      </c>
-      <c r="N100" s="2">
-        <v>0.73671874999999998</v>
-      </c>
-      <c r="O100" s="2">
-        <v>1.2903121689848169</v>
-      </c>
-      <c r="P100" s="2">
-        <v>0.97875322415450849</v>
-      </c>
-      <c r="Q100" s="2">
-        <v>0.98658125807207109</v>
-      </c>
-      <c r="R100" s="2">
-        <v>0.9788386271008328</v>
-      </c>
-      <c r="S100" s="2">
-        <v>0.97606659147899644</v>
-      </c>
-      <c r="T100" s="2">
-        <v>0.880858215431225</v>
-      </c>
-      <c r="U100" s="2">
-        <v>1.0439035612281795</v>
-      </c>
-      <c r="V100" s="2">
-        <v>0</v>
-      </c>
-      <c r="W100" s="2">
-        <v>0.65740740740740733</v>
-      </c>
-      <c r="X100" s="2">
-        <v>1.2756410256410253</v>
-      </c>
-      <c r="Y100" s="2">
-        <v>0.80952380952380953</v>
-      </c>
-      <c r="Z100" s="2">
-        <v>1.2601626016260165E-2</v>
-      </c>
-      <c r="AA100" s="2">
-        <v>0.65555555555555556</v>
+      <c r="G100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA100" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB100" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC100" s="2">
-        <v>0.60966810966810969</v>
-      </c>
-      <c r="AD100" s="1">
-        <v>-8.6783001038033603E-2</v>
-      </c>
-      <c r="AE100" s="1">
-        <v>0.11788152814222459</v>
-      </c>
-      <c r="AF100" s="1">
-        <v>0.59027497782436811</v>
+      <c r="AC100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE100" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF100" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AG100" s="1" t="s">
         <v>41</v>
@@ -12462,83 +12462,83 @@
       <c r="F101">
         <v>63</v>
       </c>
-      <c r="G101" s="2">
-        <v>0.86469284636703136</v>
-      </c>
-      <c r="H101" s="2">
-        <v>0.77857142857142858</v>
-      </c>
-      <c r="I101" s="2">
-        <v>0.76599236513062685</v>
-      </c>
-      <c r="J101" s="2">
-        <v>0.85436893203883502</v>
-      </c>
-      <c r="K101" s="2">
-        <v>0.82339449541284393</v>
-      </c>
-      <c r="L101" s="2">
-        <v>0.73879107908925945</v>
-      </c>
-      <c r="M101" s="2">
-        <v>0.78811165499548996</v>
-      </c>
-      <c r="N101" s="2">
-        <v>1.0188679245283019</v>
-      </c>
-      <c r="O101" s="2">
-        <v>0.76321892963745552</v>
-      </c>
-      <c r="P101" s="2">
-        <v>0.87950368297708026</v>
-      </c>
-      <c r="Q101" s="2">
-        <v>0.86190965699543887</v>
-      </c>
-      <c r="R101" s="2">
-        <v>0.73519233670008721</v>
-      </c>
-      <c r="S101" s="2">
-        <v>0.81596314109571022</v>
-      </c>
-      <c r="T101" s="2">
-        <v>0.87055578621608831</v>
-      </c>
-      <c r="U101" s="2">
-        <v>0.82809665120820042</v>
-      </c>
-      <c r="V101" s="2">
-        <v>0</v>
-      </c>
-      <c r="W101" s="2">
-        <v>1.5947242206235016E-2</v>
-      </c>
-      <c r="X101" s="2">
-        <v>1.4919354838709677</v>
-      </c>
-      <c r="Y101" s="2">
-        <v>1.0378787878787878</v>
-      </c>
-      <c r="Z101" s="2">
-        <v>7.7922077922077931E-3</v>
-      </c>
-      <c r="AA101" s="2">
-        <v>0.54272517321016167</v>
+      <c r="G101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA101" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB101" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC101" s="2">
-        <v>0.48106060606060602</v>
-      </c>
-      <c r="AD101" s="1">
-        <v>-0.13035314594293557</v>
-      </c>
-      <c r="AE101" s="1">
-        <v>0.27577372704725817</v>
-      </c>
-      <c r="AF101" s="1">
-        <v>1.475687444560922</v>
+      <c r="AC101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF101" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AG101" s="1" t="s">
         <v>41</v>
@@ -12581,83 +12581,83 @@
       <c r="F102">
         <v>63</v>
       </c>
-      <c r="G102" s="2">
-        <v>0.81058743592301441</v>
-      </c>
-      <c r="H102" s="2">
-        <v>0.64332247557003253</v>
-      </c>
-      <c r="I102" s="2">
-        <v>0.80526055808291774</v>
-      </c>
-      <c r="J102" s="2">
-        <v>0.97272727272727266</v>
-      </c>
-      <c r="K102" s="2">
-        <v>1.1689189189189189</v>
-      </c>
-      <c r="L102" s="2">
-        <v>0.96821598897000405</v>
-      </c>
-      <c r="M102" s="2">
-        <v>0.86442573601738859</v>
-      </c>
-      <c r="N102" s="2">
-        <v>0.72457627118644075</v>
-      </c>
-      <c r="O102" s="2">
-        <v>0.83786522038405931</v>
-      </c>
-      <c r="P102" s="2">
-        <v>0.82629874335216535</v>
-      </c>
-      <c r="Q102" s="2">
-        <v>0.8580246156509912</v>
-      </c>
-      <c r="R102" s="2">
-        <v>0.75458226019664942</v>
-      </c>
-      <c r="S102" s="2">
-        <v>0.79248007153605637</v>
-      </c>
-      <c r="T102" s="2">
-        <v>0.74112566054077378</v>
-      </c>
-      <c r="U102" s="2">
-        <v>0.71545868793946077</v>
-      </c>
-      <c r="V102" s="2">
-        <v>0</v>
-      </c>
-      <c r="W102" s="2">
-        <v>1.631701631701632E-2</v>
-      </c>
-      <c r="X102" s="2">
-        <v>1.5755208333333333</v>
-      </c>
-      <c r="Y102" s="2">
-        <v>1.1021505376344087</v>
-      </c>
-      <c r="Z102" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="2">
-        <v>0.58069381598793368</v>
+      <c r="G102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA102" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB102" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC102" s="2">
-        <v>0.51140544518027964</v>
-      </c>
-      <c r="AD102" s="1">
-        <v>-0.10891380424277897</v>
-      </c>
-      <c r="AE102" s="1">
-        <v>0.25304136852457176</v>
-      </c>
-      <c r="AF102" s="1">
-        <v>0.98379162970728196</v>
+      <c r="AC102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE102" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF102" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AG102" s="1" t="s">
         <v>41</v>
@@ -12700,83 +12700,83 @@
       <c r="F103">
         <v>63</v>
       </c>
-      <c r="G103" s="2">
-        <v>0.79654448997420846</v>
-      </c>
-      <c r="H103" s="2">
-        <v>0.65774155995343431</v>
-      </c>
-      <c r="I103" s="2">
-        <v>0.71849555996691206</v>
-      </c>
-      <c r="J103" s="2">
-        <v>0.80803571428571441</v>
-      </c>
-      <c r="K103" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="L103" s="2">
-        <v>0.8046312329969395</v>
-      </c>
-      <c r="M103" s="2">
-        <v>0.89891566044947224</v>
-      </c>
-      <c r="N103" s="2">
-        <v>1.263671875</v>
-      </c>
-      <c r="O103" s="2">
-        <v>0.98992617603158173</v>
-      </c>
-      <c r="P103" s="2">
-        <v>0.85118512620356568</v>
-      </c>
-      <c r="Q103" s="2">
-        <v>0.77941369769756674</v>
-      </c>
-      <c r="R103" s="2">
-        <v>0.76617125143400289</v>
-      </c>
-      <c r="S103" s="2">
-        <v>0.91322896720058611</v>
-      </c>
-      <c r="T103" s="2">
-        <v>0.6915678456122889</v>
-      </c>
-      <c r="U103" s="2">
-        <v>0.95864586376739436</v>
-      </c>
-      <c r="V103" s="2">
-        <v>0</v>
-      </c>
-      <c r="W103" s="2">
-        <v>0.14120370370370369</v>
-      </c>
-      <c r="X103" s="2">
-        <v>1.346153846153846</v>
-      </c>
-      <c r="Y103" s="2">
-        <v>1.2448979591836735</v>
-      </c>
-      <c r="Z103" s="2">
-        <v>2.2967479674796756E-2</v>
-      </c>
-      <c r="AA103" s="2">
-        <v>0.61481481481481481</v>
+      <c r="G103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA103" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB103" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC103" s="2">
-        <v>0.49422799422799424</v>
-      </c>
-      <c r="AD103" s="1">
-        <v>-9.5073937248497331E-2</v>
-      </c>
-      <c r="AE103" s="1">
-        <v>0.20898382256153669</v>
-      </c>
-      <c r="AF103" s="1">
-        <v>0.68865414079509613</v>
+      <c r="AC103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE103" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF103" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AG103" s="1" t="s">
         <v>41</v>
@@ -12819,83 +12819,83 @@
       <c r="F104">
         <v>103</v>
       </c>
-      <c r="G104" s="2">
-        <v>1.0090176823332644</v>
-      </c>
-      <c r="H104" s="2">
-        <v>1.1214285714285714</v>
-      </c>
-      <c r="I104" s="2">
-        <v>0.89985823746234239</v>
-      </c>
-      <c r="J104" s="2">
-        <v>1.2233009708737863</v>
-      </c>
-      <c r="K104" s="2">
-        <v>0.7339449541284403</v>
-      </c>
-      <c r="L104" s="2">
-        <v>0.78993342555039769</v>
-      </c>
-      <c r="M104" s="2">
-        <v>1.0024218096930673</v>
-      </c>
-      <c r="N104" s="2">
-        <v>1.1179245283018868</v>
-      </c>
-      <c r="O104" s="2">
-        <v>1.1377635732331046</v>
-      </c>
-      <c r="P104" s="2">
-        <v>1.0372131561668636</v>
-      </c>
-      <c r="Q104" s="2">
-        <v>1.0661437482917138</v>
-      </c>
-      <c r="R104" s="2">
-        <v>0.89900703994653219</v>
-      </c>
-      <c r="S104" s="2">
-        <v>1.0951316582371151</v>
-      </c>
-      <c r="T104" s="2">
-        <v>1.3084692212184179</v>
-      </c>
-      <c r="U104" s="2">
-        <v>0.85295858533362878</v>
-      </c>
-      <c r="V104" s="2">
-        <v>0</v>
-      </c>
-      <c r="W104" s="2">
-        <v>3.2014388489208637E-2</v>
-      </c>
-      <c r="X104" s="2">
-        <v>1.2056451612903227</v>
-      </c>
-      <c r="Y104" s="2">
-        <v>0.95454545454545447</v>
-      </c>
-      <c r="Z104" s="2">
-        <v>2.9004329004329012E-2</v>
-      </c>
-      <c r="AA104" s="2">
-        <v>0.48498845265588914</v>
+      <c r="G104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA104" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB104" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC104" s="2">
-        <v>0.40909090909090906</v>
-      </c>
-      <c r="AD104" s="1">
-        <v>-0.15412853232577073</v>
-      </c>
-      <c r="AE104" s="1">
-        <v>0.30860612460265191</v>
-      </c>
-      <c r="AF104" s="1">
-        <v>-2.459479074268204</v>
+      <c r="AC104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF104" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AG104" s="1" t="s">
         <v>41</v>
@@ -12938,83 +12938,83 @@
       <c r="F105">
         <v>103</v>
       </c>
-      <c r="G105" s="2">
-        <v>0.95880249567906295</v>
-      </c>
-      <c r="H105" s="2">
-        <v>0.88219326818675348</v>
-      </c>
-      <c r="I105" s="2">
-        <v>0.87186846890630776</v>
-      </c>
-      <c r="J105" s="2">
-        <v>0.96363636363636362</v>
-      </c>
-      <c r="K105" s="2">
-        <v>0.69369369369369371</v>
-      </c>
-      <c r="L105" s="2">
-        <v>0.94811455300430048</v>
-      </c>
-      <c r="M105" s="2">
-        <v>0.97710898695377779</v>
-      </c>
-      <c r="N105" s="2">
-        <v>1.0868644067796609</v>
-      </c>
-      <c r="O105" s="2">
-        <v>1.1071582832920606</v>
-      </c>
-      <c r="P105" s="2">
-        <v>0.88043155781652493</v>
-      </c>
-      <c r="Q105" s="2">
-        <v>0.88750256793615312</v>
-      </c>
-      <c r="R105" s="2">
-        <v>0.89740247438125365</v>
-      </c>
-      <c r="S105" s="2">
-        <v>0.93881582500760474</v>
-      </c>
-      <c r="T105" s="2">
-        <v>0.86227108934016594</v>
-      </c>
-      <c r="U105" s="2">
-        <v>0.9588812571172427</v>
-      </c>
-      <c r="V105" s="2">
-        <v>0</v>
-      </c>
-      <c r="W105" s="2">
-        <v>1.4801864801864798E-2</v>
-      </c>
-      <c r="X105" s="2">
-        <v>1.3802083333333333</v>
-      </c>
-      <c r="Y105" s="2">
-        <v>0.84005376344086036</v>
-      </c>
-      <c r="Z105" s="2">
-        <v>1.729957805907173E-2</v>
-      </c>
-      <c r="AA105" s="2">
-        <v>0.50527903469079938</v>
+      <c r="G105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA105" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB105" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC105" s="2">
-        <v>0.44885945548197204</v>
-      </c>
-      <c r="AD105" s="1">
-        <v>-0.12545856631197727</v>
-      </c>
-      <c r="AE105" s="1">
-        <v>0.2795110777076531</v>
-      </c>
-      <c r="AF105" s="1">
-        <v>0.88541246673655216</v>
+      <c r="AC105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF105" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AG105" s="1" t="s">
         <v>41</v>
@@ -13057,83 +13057,83 @@
       <c r="F106">
         <v>103</v>
       </c>
-      <c r="G106" s="2">
-        <v>0.96513248256078044</v>
-      </c>
-      <c r="H106" s="2">
-        <v>0.82363213038416772</v>
-      </c>
-      <c r="I106" s="2">
-        <v>0.91109145090910715</v>
-      </c>
-      <c r="J106" s="2">
-        <v>0.9910714285714286</v>
-      </c>
-      <c r="K106" s="2">
-        <v>0.50925925925925919</v>
-      </c>
-      <c r="L106" s="2">
-        <v>0.92509553900191399</v>
-      </c>
-      <c r="M106" s="2">
-        <v>0.91804006130921922</v>
-      </c>
-      <c r="N106" s="2">
-        <v>0.60546875</v>
-      </c>
-      <c r="O106" s="2">
-        <v>1.1596593287672052</v>
-      </c>
-      <c r="P106" s="2">
-        <v>0.87817485304976717</v>
-      </c>
-      <c r="Q106" s="2">
-        <v>0.9048863964197712</v>
-      </c>
-      <c r="R106" s="2">
-        <v>0.93543941205307746</v>
-      </c>
-      <c r="S106" s="2">
-        <v>1.013063177627439</v>
-      </c>
-      <c r="T106" s="2">
-        <v>0.90676158680225649</v>
-      </c>
-      <c r="U106" s="2">
-        <v>1.1247658725744962</v>
-      </c>
-      <c r="V106" s="2">
-        <v>0</v>
-      </c>
-      <c r="W106" s="2">
-        <v>4.282407407407407E-2</v>
-      </c>
-      <c r="X106" s="2">
-        <v>1.3589743589743588</v>
-      </c>
-      <c r="Y106" s="2">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="Z106" s="2">
-        <v>3.9227642276422774E-2</v>
-      </c>
-      <c r="AA106" s="2">
-        <v>0.56296296296296289</v>
+      <c r="G106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA106" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB106" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC106" s="2">
-        <v>0.44733044733044736</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>-0.11015101881155698</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>0.24275404830962918</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>1.377308281590194</v>
+      <c r="AC106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE106" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF106" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AG106" s="1" t="s">
         <v>41</v>
@@ -24243,88 +24243,88 @@
       <c r="F200">
         <v>33</v>
       </c>
-      <c r="G200" s="2">
-        <v>0.67142324511528084</v>
-      </c>
-      <c r="H200" s="2">
-        <v>0.75653923541247481</v>
-      </c>
-      <c r="I200" s="2">
-        <v>0.84029544062067196</v>
-      </c>
-      <c r="J200" s="2">
-        <v>0.68484848484848482</v>
-      </c>
-      <c r="K200" s="2">
-        <v>0.73937007874015759</v>
-      </c>
-      <c r="L200" s="2">
-        <v>0.85102314615199226</v>
-      </c>
-      <c r="M200" s="2">
-        <v>0.89169296498489981</v>
-      </c>
-      <c r="N200" s="2">
-        <v>0.78947368421052633</v>
-      </c>
-      <c r="O200" s="2">
-        <v>1.133641066788512</v>
-      </c>
-      <c r="P200" s="2">
-        <v>0.94164533690135044</v>
-      </c>
-      <c r="Q200" s="2">
-        <v>0.93049290773645565</v>
-      </c>
-      <c r="R200" s="2">
-        <v>0.8705460229590648</v>
-      </c>
-      <c r="S200" s="2">
-        <v>0.97480001145480388</v>
-      </c>
-      <c r="T200" s="2">
-        <v>1.0559412693480914</v>
-      </c>
-      <c r="U200" s="2">
-        <v>0.91920716454053808</v>
-      </c>
-      <c r="V200" s="2">
-        <v>1.0157068062827224</v>
-      </c>
-      <c r="W200" s="2">
-        <v>0.4726027397260274</v>
-      </c>
-      <c r="X200" s="2">
-        <v>1.2469135802469133</v>
-      </c>
-      <c r="Y200" s="2">
-        <v>0.9356725146198831</v>
-      </c>
-      <c r="Z200" s="2">
-        <v>0.87448559670781889</v>
-      </c>
-      <c r="AA200" s="2">
-        <v>0.93387720051524259</v>
+      <c r="G200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA200" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB200" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC200" s="2">
-        <v>0.86021505376344076</v>
-      </c>
-      <c r="AD200" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE200" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF200" s="1">
-        <v>0.19675832594145781</v>
-      </c>
-      <c r="AG200" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH200" s="3" t="s">
+      <c r="AC200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH200" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AI200" s="4" t="s">
@@ -24362,88 +24362,88 @@
       <c r="F201">
         <v>33</v>
       </c>
-      <c r="G201" s="2">
-        <v>0.60100892895252589</v>
-      </c>
-      <c r="H201" s="2">
-        <v>0.74857142857142855</v>
-      </c>
-      <c r="I201" s="2">
-        <v>0.92493849030127206</v>
-      </c>
-      <c r="J201" s="2">
-        <v>0.81052631578947365</v>
-      </c>
-      <c r="K201" s="2">
-        <v>0.90660377358490563</v>
-      </c>
-      <c r="L201" s="2">
-        <v>1.0069798419488594</v>
-      </c>
-      <c r="M201" s="2">
-        <v>0.93422719559578726</v>
-      </c>
-      <c r="N201" s="2">
-        <v>1.0810810810810811</v>
-      </c>
-      <c r="O201" s="2">
-        <v>1.1526122472629048</v>
-      </c>
-      <c r="P201" s="2">
-        <v>0.94588491068711067</v>
-      </c>
-      <c r="Q201" s="2">
-        <v>0.97097536164146925</v>
-      </c>
-      <c r="R201" s="2">
-        <v>0.84715747103181038</v>
-      </c>
-      <c r="S201" s="2">
-        <v>1.0981277491589834</v>
-      </c>
-      <c r="T201" s="2">
-        <v>0.77947108849970059</v>
-      </c>
-      <c r="U201" s="2">
-        <v>1.0822375039045293</v>
-      </c>
-      <c r="V201" s="2">
-        <v>1.0104166666666667</v>
-      </c>
-      <c r="W201" s="2">
-        <v>0.41723356009070295</v>
-      </c>
-      <c r="X201" s="2">
-        <v>1.4230769230769229</v>
-      </c>
-      <c r="Y201" s="2">
-        <v>1.2814814814814814</v>
-      </c>
-      <c r="Z201" s="2">
-        <v>0.82815734989648027</v>
-      </c>
-      <c r="AA201" s="2">
-        <v>0.93376764386536371</v>
+      <c r="G201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA201" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB201" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC201" s="2">
-        <v>0.885755603759942</v>
-      </c>
-      <c r="AD201" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE201" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF201" s="1">
-        <v>0.29513748891218405</v>
-      </c>
-      <c r="AG201" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH201" s="3" t="s">
+      <c r="AC201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG201" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH201" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AI201" s="4" t="s">
@@ -24481,88 +24481,88 @@
       <c r="F202">
         <v>33</v>
       </c>
-      <c r="G202" s="2">
-        <v>0.60565362027655179</v>
-      </c>
-      <c r="H202" s="2">
-        <v>0.75751295336787561</v>
-      </c>
-      <c r="I202" s="2">
-        <v>0.89001320014250418</v>
-      </c>
-      <c r="J202" s="2">
-        <v>0.96062992125984248</v>
-      </c>
-      <c r="K202" s="2">
-        <v>0.85327102803738331</v>
-      </c>
-      <c r="L202" s="2">
-        <v>0.95396526704244866</v>
-      </c>
-      <c r="M202" s="2">
-        <v>1.0871665409006428</v>
-      </c>
-      <c r="N202" s="2">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="O202" s="2">
-        <v>1.1106616811150101</v>
-      </c>
-      <c r="P202" s="2">
-        <v>0.9595909490304817</v>
-      </c>
-      <c r="Q202" s="2">
-        <v>1.0000960532318148</v>
-      </c>
-      <c r="R202" s="2">
-        <v>0.90532695693046783</v>
-      </c>
-      <c r="S202" s="2">
-        <v>1.0525130591961531</v>
-      </c>
-      <c r="T202" s="2">
-        <v>0.8822980005691935</v>
-      </c>
-      <c r="U202" s="2">
-        <v>1.1426658689956579</v>
-      </c>
-      <c r="V202" s="2">
-        <v>0.99497487437185961</v>
-      </c>
-      <c r="W202" s="2">
-        <v>0.43990929705215415</v>
-      </c>
-      <c r="X202" s="2">
-        <v>1.5384615384615383</v>
-      </c>
-      <c r="Y202" s="2">
-        <v>1.4483260553129547</v>
-      </c>
-      <c r="Z202" s="2">
-        <v>0.82128514056224899</v>
-      </c>
-      <c r="AA202" s="2">
-        <v>0.98375903269657294</v>
+      <c r="G202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA202" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB202" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC202" s="2">
-        <v>0.93548387096774188</v>
-      </c>
-      <c r="AD202" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE202" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF202" s="1">
-        <v>0.39351665188291385</v>
-      </c>
-      <c r="AG202" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH202" s="3" t="s">
+      <c r="AC202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG202" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH202" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AI202" s="4" t="s">
@@ -24600,88 +24600,88 @@
       <c r="F203">
         <v>47</v>
       </c>
-      <c r="G203" s="2">
-        <v>0.6190050521057362</v>
-      </c>
-      <c r="H203" s="2">
-        <v>0.75050301810865194</v>
-      </c>
-      <c r="I203" s="2">
-        <v>0.82791635804623531</v>
-      </c>
-      <c r="J203" s="2">
-        <v>0.77272727272727271</v>
-      </c>
-      <c r="K203" s="2">
-        <v>0.80314960629921262</v>
-      </c>
-      <c r="L203" s="2">
-        <v>0.84780373741715653</v>
-      </c>
-      <c r="M203" s="2">
-        <v>1.0371736224797694</v>
-      </c>
-      <c r="N203" s="2">
-        <v>0.81954887218045114</v>
-      </c>
-      <c r="O203" s="2">
-        <v>1.2458753101335183</v>
-      </c>
-      <c r="P203" s="2">
-        <v>0.96448432347413271</v>
-      </c>
-      <c r="Q203" s="2">
-        <v>0.98328940393158737</v>
-      </c>
-      <c r="R203" s="2">
-        <v>0.88137441393369687</v>
-      </c>
-      <c r="S203" s="2">
-        <v>0.97695421850136865</v>
-      </c>
-      <c r="T203" s="2">
-        <v>0.94753333980954968</v>
-      </c>
-      <c r="U203" s="2">
-        <v>0.93707217761469919</v>
-      </c>
-      <c r="V203" s="2">
-        <v>1</v>
-      </c>
-      <c r="W203" s="2">
-        <v>0.47831050228310507</v>
-      </c>
-      <c r="X203" s="2">
-        <v>1.3086419753086418</v>
-      </c>
-      <c r="Y203" s="2">
-        <v>0.86988304093567259</v>
-      </c>
-      <c r="Z203" s="2">
-        <v>0.80967078189300412</v>
-      </c>
-      <c r="AA203" s="2">
-        <v>0.90883068555889501</v>
+      <c r="G203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA203" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB203" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC203" s="2">
-        <v>0.8530465949820788</v>
-      </c>
-      <c r="AD203" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE203" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF203" s="1">
-        <v>-9.8379162970728018E-2</v>
-      </c>
-      <c r="AG203" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH203" s="3" t="s">
+      <c r="AC203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG203" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH203" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AI203" s="4" t="s">
@@ -24719,88 +24719,88 @@
       <c r="F204">
         <v>47</v>
       </c>
-      <c r="G204" s="2">
-        <v>0.53106165492873569</v>
-      </c>
-      <c r="H204" s="2">
-        <v>0.46571428571428569</v>
-      </c>
-      <c r="I204" s="2">
-        <v>0.8991733337568526</v>
-      </c>
-      <c r="J204" s="2">
-        <v>1.0087719298245614</v>
-      </c>
-      <c r="K204" s="2">
-        <v>0.84622641509433971</v>
-      </c>
-      <c r="L204" s="2">
-        <v>0.89699773354176193</v>
-      </c>
-      <c r="M204" s="2">
-        <v>0.98552410221399722</v>
-      </c>
-      <c r="N204" s="2">
-        <v>0.86486486486486491</v>
-      </c>
-      <c r="O204" s="2">
-        <v>1.2015446518228561</v>
-      </c>
-      <c r="P204" s="2">
-        <v>1.142129284829198</v>
-      </c>
-      <c r="Q204" s="2">
-        <v>0.94809241100281039</v>
-      </c>
-      <c r="R204" s="2">
-        <v>0.74300681629350518</v>
-      </c>
-      <c r="S204" s="2">
-        <v>1.1433980235453229</v>
-      </c>
-      <c r="T204" s="2">
-        <v>0.82006473611660968</v>
-      </c>
-      <c r="U204" s="2">
-        <v>0.81035800010124448</v>
-      </c>
-      <c r="V204" s="2">
-        <v>1</v>
-      </c>
-      <c r="W204" s="2">
-        <v>0.55328798185941042</v>
-      </c>
-      <c r="X204" s="2">
-        <v>1.4487179487179487</v>
-      </c>
-      <c r="Y204" s="2">
-        <v>1.1037037037037036</v>
-      </c>
-      <c r="Z204" s="2">
-        <v>0.81677018633540366</v>
-      </c>
-      <c r="AA204" s="2">
-        <v>0.98805646036916384</v>
+      <c r="G204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA204" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB204" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC204" s="2">
-        <v>0.92552422270426604</v>
-      </c>
-      <c r="AD204" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE204" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF204" s="1">
-        <v>9.8379162970728018E-2</v>
-      </c>
-      <c r="AG204" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH204" s="3" t="s">
+      <c r="AC204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG204" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH204" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AI204" s="4" t="s">
@@ -24838,88 +24838,88 @@
       <c r="F205">
         <v>47</v>
       </c>
-      <c r="G205" s="2">
-        <v>0.48818792261729294</v>
-      </c>
-      <c r="H205" s="2">
-        <v>0.65906735751295342</v>
-      </c>
-      <c r="I205" s="2">
-        <v>0.97315656934342887</v>
-      </c>
-      <c r="J205" s="2">
-        <v>0.94488188976377963</v>
-      </c>
-      <c r="K205" s="2">
-        <v>0.62710280373831784</v>
-      </c>
-      <c r="L205" s="2">
-        <v>0.92975804500789649</v>
-      </c>
-      <c r="M205" s="2">
-        <v>1.1851237520070805</v>
-      </c>
-      <c r="N205" s="2">
-        <v>0.79047619047619055</v>
-      </c>
-      <c r="O205" s="2">
-        <v>1.1038044866058372</v>
-      </c>
-      <c r="P205" s="2">
-        <v>0.94701244180718736</v>
-      </c>
-      <c r="Q205" s="2">
-        <v>0.98891350820195301</v>
-      </c>
-      <c r="R205" s="2">
-        <v>0.86226864681952631</v>
-      </c>
-      <c r="S205" s="2">
-        <v>1.070558986144742</v>
-      </c>
-      <c r="T205" s="2">
-        <v>0.91425766847259982</v>
-      </c>
-      <c r="U205" s="2">
-        <v>1.0441833292560903</v>
-      </c>
-      <c r="V205" s="2">
-        <v>0.98994974874371877</v>
-      </c>
-      <c r="W205" s="2">
-        <v>0.48639455782312924</v>
-      </c>
-      <c r="X205" s="2">
-        <v>1.5384615384615383</v>
-      </c>
-      <c r="Y205" s="2">
-        <v>1.4192139737991265</v>
-      </c>
-      <c r="Z205" s="2">
-        <v>0.82228915662650603</v>
-      </c>
-      <c r="AA205" s="2">
-        <v>0.99449094941689919</v>
+      <c r="G205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA205" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB205" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC205" s="2">
-        <v>0.94982078853046592</v>
-      </c>
-      <c r="AD205" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE205" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF205" s="1">
-        <v>-0.19675832594145604</v>
-      </c>
-      <c r="AG205" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH205" s="3" t="s">
+      <c r="AC205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG205" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH205" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AI205" s="4" t="s">
@@ -24957,88 +24957,88 @@
       <c r="F206">
         <v>63</v>
       </c>
-      <c r="G206" s="2">
-        <v>0.46533332783291959</v>
-      </c>
-      <c r="H206" s="2">
-        <v>0.75201207243460766</v>
-      </c>
-      <c r="I206" s="2">
-        <v>0.68895402445631704</v>
-      </c>
-      <c r="J206" s="2">
-        <v>0.61553030303030309</v>
-      </c>
-      <c r="K206" s="2">
-        <v>0.69094488188976388</v>
-      </c>
-      <c r="L206" s="2">
-        <v>0.77972810154471395</v>
-      </c>
-      <c r="M206" s="2">
-        <v>0.85843266398611007</v>
-      </c>
-      <c r="N206" s="2">
-        <v>1.1917293233082706</v>
-      </c>
-      <c r="O206" s="2">
-        <v>0.90974960895515988</v>
-      </c>
-      <c r="P206" s="2">
-        <v>0.81541771683241204</v>
-      </c>
-      <c r="Q206" s="2">
-        <v>0.93588969610709227</v>
-      </c>
-      <c r="R206" s="2">
-        <v>0.59488392828531278</v>
-      </c>
-      <c r="S206" s="2">
-        <v>0.85179318696938056</v>
-      </c>
-      <c r="T206" s="2">
-        <v>0.67113274813223844</v>
-      </c>
-      <c r="U206" s="2">
-        <v>0.87598014452621975</v>
-      </c>
-      <c r="V206" s="2">
-        <v>1.0157068062827224</v>
-      </c>
-      <c r="W206" s="2">
-        <v>0.13356164383561644</v>
-      </c>
-      <c r="X206" s="2">
-        <v>1.5802469135802468</v>
-      </c>
-      <c r="Y206" s="2">
-        <v>1.8932748538011697</v>
-      </c>
-      <c r="Z206" s="2">
-        <v>0.83436213991769537</v>
-      </c>
-      <c r="AA206" s="2">
-        <v>0.93029912695005013</v>
+      <c r="G206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA206" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB206" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC206" s="2">
-        <v>0.8853046594982078</v>
-      </c>
-      <c r="AD206" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE206" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF206" s="1">
-        <v>-0.98379162970728018</v>
-      </c>
-      <c r="AG206" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH206" s="3" t="s">
+      <c r="AC206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG206" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH206" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AI206" s="4" t="s">
@@ -25076,88 +25076,88 @@
       <c r="F207">
         <v>63</v>
       </c>
-      <c r="G207" s="2">
-        <v>0.40141015408088931</v>
-      </c>
-      <c r="H207" s="2">
-        <v>0.68095238095238098</v>
-      </c>
-      <c r="I207" s="2">
-        <v>0.75080360857930672</v>
-      </c>
-      <c r="J207" s="2">
-        <v>0.87061403508771928</v>
-      </c>
-      <c r="K207" s="2">
-        <v>0.96698113207547176</v>
-      </c>
-      <c r="L207" s="2">
-        <v>0.65897315382074739</v>
-      </c>
-      <c r="M207" s="2">
-        <v>0.85975017654822528</v>
-      </c>
-      <c r="N207" s="2">
-        <v>0.96846846846846846</v>
-      </c>
-      <c r="O207" s="2">
-        <v>1.0288169499748872</v>
-      </c>
-      <c r="P207" s="2">
-        <v>0.84361554702699781</v>
-      </c>
-      <c r="Q207" s="2">
-        <v>0.92579708353233037</v>
-      </c>
-      <c r="R207" s="2">
-        <v>0.61248917409408343</v>
-      </c>
-      <c r="S207" s="2">
-        <v>0.97554496974432992</v>
-      </c>
-      <c r="T207" s="2">
-        <v>0.77454122730301989</v>
-      </c>
-      <c r="U207" s="2">
-        <v>1.0467610301905632</v>
-      </c>
-      <c r="V207" s="2">
-        <v>1.0104166666666667</v>
-      </c>
-      <c r="W207" s="2">
-        <v>0.41156462585034009</v>
-      </c>
-      <c r="X207" s="2">
-        <v>1.5769230769230769</v>
-      </c>
-      <c r="Y207" s="2">
-        <v>3.0222222222222221</v>
-      </c>
-      <c r="Z207" s="2">
-        <v>0.85507246376811585</v>
-      </c>
-      <c r="AA207" s="2">
-        <v>1.0133912414042707</v>
+      <c r="G207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA207" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB207" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC207" s="2">
-        <v>1.0231381055676065</v>
-      </c>
-      <c r="AD207" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE207" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF207" s="1">
-        <v>0.19675832594145781</v>
-      </c>
-      <c r="AG207" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH207" s="3" t="s">
+      <c r="AC207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG207" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH207" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AI207" s="4" t="s">
@@ -25195,88 +25195,88 @@
       <c r="F208">
         <v>63</v>
       </c>
-      <c r="G208" s="2">
-        <v>0.34765729738695705</v>
-      </c>
-      <c r="H208" s="2">
-        <v>0.62694300518134716</v>
-      </c>
-      <c r="I208" s="2">
-        <v>0.71924682474955937</v>
-      </c>
-      <c r="J208" s="2">
-        <v>0.74212598425196863</v>
-      </c>
-      <c r="K208" s="2">
-        <v>1.0794392523364487</v>
-      </c>
-      <c r="L208" s="2">
-        <v>0.83357071477428168</v>
-      </c>
-      <c r="M208" s="2">
-        <v>0.99656985043047741</v>
-      </c>
-      <c r="N208" s="2">
-        <v>0.72420634920634919</v>
-      </c>
-      <c r="O208" s="2">
-        <v>1.0335017798368618</v>
-      </c>
-      <c r="P208" s="2">
-        <v>0.89240910916845384</v>
-      </c>
-      <c r="Q208" s="2">
-        <v>0.89312082858761443</v>
-      </c>
-      <c r="R208" s="2">
-        <v>0.78311466746725444</v>
-      </c>
-      <c r="S208" s="2">
-        <v>1.0406444928566987</v>
-      </c>
-      <c r="T208" s="2">
-        <v>0.72581094857760109</v>
-      </c>
-      <c r="U208" s="2">
-        <v>0.7321741711228551</v>
-      </c>
-      <c r="V208" s="2">
-        <v>1</v>
-      </c>
-      <c r="W208" s="2">
-        <v>0.15306122448979592</v>
-      </c>
-      <c r="X208" s="2">
-        <v>1.7307692307692306</v>
-      </c>
-      <c r="Y208" s="2">
-        <v>2.736535662299854</v>
-      </c>
-      <c r="Z208" s="2">
-        <v>0.83534136546184745</v>
-      </c>
-      <c r="AA208" s="2">
-        <v>1.0016455605637833</v>
+      <c r="G208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA208" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB208" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC208" s="2">
-        <v>0.96415770609318985</v>
-      </c>
-      <c r="AD208" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE208" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF208" s="1">
-        <v>9.8379162970729794E-2</v>
-      </c>
-      <c r="AG208" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH208" s="3" t="s">
+      <c r="AC208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG208" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH208" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AI208" s="4" t="s">
@@ -25314,88 +25314,88 @@
       <c r="F209">
         <v>103</v>
       </c>
-      <c r="G209" s="2">
-        <v>0.54184220258842464</v>
-      </c>
-      <c r="H209" s="2">
-        <v>0.56338028169014087</v>
-      </c>
-      <c r="I209" s="2">
-        <v>0.83758196110999383</v>
-      </c>
-      <c r="J209" s="2">
-        <v>0.77462121212121215</v>
-      </c>
-      <c r="K209" s="2">
-        <v>0.42519685039370086</v>
-      </c>
-      <c r="L209" s="2">
-        <v>0.85352225625050282</v>
-      </c>
-      <c r="M209" s="2">
-        <v>1.012899794189255</v>
-      </c>
-      <c r="N209" s="2">
-        <v>0.57330827067669166</v>
-      </c>
-      <c r="O209" s="2">
-        <v>1.0839939703212804</v>
-      </c>
-      <c r="P209" s="2">
-        <v>0.87652981767113236</v>
-      </c>
-      <c r="Q209" s="2">
-        <v>0.99463675969820542</v>
-      </c>
-      <c r="R209" s="2">
-        <v>0.84646519103990292</v>
-      </c>
-      <c r="S209" s="2">
-        <v>1.0578578659808697</v>
-      </c>
-      <c r="T209" s="2">
-        <v>0.99846672396633696</v>
-      </c>
-      <c r="U209" s="2">
-        <v>1.0715728449199926</v>
-      </c>
-      <c r="V209" s="2">
-        <v>0</v>
-      </c>
-      <c r="W209" s="2">
-        <v>0.53995433789954339</v>
-      </c>
-      <c r="X209" s="2">
-        <v>1.1592592592592592</v>
-      </c>
-      <c r="Y209" s="2">
-        <v>1.7690058479532165</v>
-      </c>
-      <c r="Z209" s="2">
-        <v>4.3518518518518512E-2</v>
-      </c>
-      <c r="AA209" s="2">
-        <v>0.64405324173465006</v>
+      <c r="G209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA209" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB209" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC209" s="2">
-        <v>0.60931899641577059</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE209" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF209" s="1">
-        <v>-6.3848076768002571</v>
-      </c>
-      <c r="AG209" s="1">
-        <v>5.3036560448637138</v>
-      </c>
-      <c r="AH209" s="3" t="s">
+      <c r="AC209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG209" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH209" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AI209" s="4" t="s">
@@ -25433,88 +25433,88 @@
       <c r="F210">
         <v>103</v>
       </c>
-      <c r="G210" s="2">
-        <v>0.35814229838103651</v>
-      </c>
-      <c r="H210" s="2">
-        <v>0.79285714285714282</v>
-      </c>
-      <c r="I210" s="2">
-        <v>0.86070405255436022</v>
-      </c>
-      <c r="J210" s="2">
-        <v>1.0679824561403508</v>
-      </c>
-      <c r="K210" s="2">
-        <v>0.65094339622641506</v>
-      </c>
-      <c r="L210" s="2">
-        <v>0.91834107768155904</v>
-      </c>
-      <c r="M210" s="2">
-        <v>1.0223343855368436</v>
-      </c>
-      <c r="N210" s="2">
-        <v>1.177927927927928</v>
-      </c>
-      <c r="O210" s="2">
-        <v>1.1256047852617923</v>
-      </c>
-      <c r="P210" s="2">
-        <v>0.87511487343833172</v>
-      </c>
-      <c r="Q210" s="2">
-        <v>0.8518894642501823</v>
-      </c>
-      <c r="R210" s="2">
-        <v>0.76229677514967409</v>
-      </c>
-      <c r="S210" s="2">
-        <v>1.1502283829726321</v>
-      </c>
-      <c r="T210" s="2">
-        <v>0.99392098532629169</v>
-      </c>
-      <c r="U210" s="2">
-        <v>0.85421137232745026</v>
-      </c>
-      <c r="V210" s="2">
-        <v>1.0052083333333335</v>
-      </c>
-      <c r="W210" s="2">
-        <v>0.51814058956916098</v>
-      </c>
-      <c r="X210" s="2">
-        <v>1.3589743589743588</v>
-      </c>
-      <c r="Y210" s="2">
-        <v>1.2740740740740739</v>
-      </c>
-      <c r="Z210" s="2">
-        <v>0.84368530020703936</v>
-      </c>
-      <c r="AA210" s="2">
-        <v>0.94824466159971033</v>
+      <c r="G210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA210" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB210" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC210" s="2">
-        <v>0.90383224873463475</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE210" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF210" s="1">
-        <v>0.29513748891218405</v>
-      </c>
-      <c r="AG210" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH210" s="3" t="s">
+      <c r="AC210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG210" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH210" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AI210" s="4" t="s">
@@ -25552,88 +25552,88 @@
       <c r="F211">
         <v>103</v>
       </c>
-      <c r="G211" s="2">
-        <v>0.26207976873345834</v>
-      </c>
-      <c r="H211" s="2">
-        <v>0.68393782383419688</v>
-      </c>
-      <c r="I211" s="2">
-        <v>0.85999356610284328</v>
-      </c>
-      <c r="J211" s="2">
-        <v>0.62992125984251968</v>
-      </c>
-      <c r="K211" s="2">
-        <v>1.1775700934579441</v>
-      </c>
-      <c r="L211" s="2">
-        <v>0.87009181731799501</v>
-      </c>
-      <c r="M211" s="2">
-        <v>1.1627483809491082</v>
-      </c>
-      <c r="N211" s="2">
-        <v>1.0515873015873014</v>
-      </c>
-      <c r="O211" s="2">
-        <v>1.0652765843806151</v>
-      </c>
-      <c r="P211" s="2">
-        <v>0.93741254141153663</v>
-      </c>
-      <c r="Q211" s="2">
-        <v>0.95431676682031441</v>
-      </c>
-      <c r="R211" s="2">
-        <v>0.77123220325822239</v>
-      </c>
-      <c r="S211" s="2">
-        <v>1.3546266029861338</v>
-      </c>
-      <c r="T211" s="2">
-        <v>0.88820737322990495</v>
-      </c>
-      <c r="U211" s="2">
-        <v>0.69118360826408587</v>
-      </c>
-      <c r="V211" s="2">
-        <v>1.0050251256281411</v>
-      </c>
-      <c r="W211" s="2">
-        <v>0.48526077097505671</v>
-      </c>
-      <c r="X211" s="2">
-        <v>1.3846153846153846</v>
-      </c>
-      <c r="Y211" s="2">
-        <v>1.2081513828238717</v>
-      </c>
-      <c r="Z211" s="2">
-        <v>0.83634538152610449</v>
-      </c>
-      <c r="AA211" s="2">
-        <v>0.96229519925592033</v>
+      <c r="G211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA211" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="AB211" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC211" s="2">
-        <v>0.8960573476702508</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE211" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF211" s="1">
-        <v>0.29513748891218405</v>
-      </c>
-      <c r="AG211" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH211" s="3" t="s">
+      <c r="AC211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG211" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH211" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AI211" s="4" t="s">
@@ -26098,7 +26098,7 @@
         <v>0.85604113110539848</v>
       </c>
       <c r="AD215" s="1">
-        <v>-7.9147587202643699E-3</v>
+        <v>7.9147587202643699E-3</v>
       </c>
       <c r="AE215" s="1">
         <v>0</v>
@@ -26217,7 +26217,7 @@
         <v>1.234920634920635</v>
       </c>
       <c r="AD216" s="1">
-        <v>-8.7263109850594933E-3</v>
+        <v>8.7263109850594933E-3</v>
       </c>
       <c r="AE216" s="1">
         <v>0</v>
@@ -26336,7 +26336,7 @@
         <v>1.5373831775700935</v>
       </c>
       <c r="AD217" s="1">
-        <v>-5.1956410664569908E-2</v>
+        <v>5.1956410664569908E-2</v>
       </c>
       <c r="AE217" s="1">
         <v>0</v>
@@ -26455,7 +26455,7 @@
         <v>0.89974293059125965</v>
       </c>
       <c r="AD218" s="1">
-        <v>-7.9147587202643699E-3</v>
+        <v>7.9147587202643699E-3</v>
       </c>
       <c r="AE218" s="1">
         <v>0</v>
@@ -26574,7 +26574,7 @@
         <v>1.0666666666666669</v>
       </c>
       <c r="AD219" s="1">
-        <v>-1.004709666204251E-3</v>
+        <v>1.004709666204251E-3</v>
       </c>
       <c r="AE219" s="1">
         <v>0</v>
@@ -26693,7 +26693,7 @@
         <v>1.514018691588785</v>
       </c>
       <c r="AD220" s="1">
-        <v>-6.097856991822781E-2</v>
+        <v>6.097856991822781E-2</v>
       </c>
       <c r="AE220" s="1">
         <v>0</v>
@@ -26812,7 +26812,7 @@
         <v>0.95372750642673521</v>
       </c>
       <c r="AD221" s="1">
-        <v>-2.83288068770302E-2</v>
+        <v>2.83288068770302E-2</v>
       </c>
       <c r="AE221" s="1">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>1.1714285714285715</v>
       </c>
       <c r="AD222" s="1">
-        <v>1.5681505789455499E-2</v>
+        <v>-1.5681505789455499E-2</v>
       </c>
       <c r="AE222" s="1">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>2.0654205607476634</v>
       </c>
       <c r="AD223" s="1">
-        <v>-6.0978569918227803E-2</v>
+        <v>6.0978569918227803E-2</v>
       </c>
       <c r="AE223" s="1">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>1.2133676092544987</v>
       </c>
       <c r="AD224" s="1">
-        <v>-1.6796363891602439E-3</v>
+        <v>1.6796363891602439E-3</v>
       </c>
       <c r="AE224" s="1">
         <v>0</v>
@@ -27288,7 +27288,7 @@
         <v>1.0793650793650795</v>
       </c>
       <c r="AD225" s="1">
-        <v>8.8512522108148417E-3</v>
+        <v>-8.8512522108148417E-3</v>
       </c>
       <c r="AE225" s="1">
         <v>0</v>
@@ -27407,7 +27407,7 @@
         <v>1.6308411214953269</v>
       </c>
       <c r="AD226" s="1">
-        <v>-6.097856991822781E-2</v>
+        <v>6.097856991822781E-2</v>
       </c>
       <c r="AE226" s="1">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>1.0951156812339331</v>
       </c>
       <c r="AD227" s="1">
-        <v>5.9211273532431274E-3</v>
+        <v>-5.9211273532431274E-3</v>
       </c>
       <c r="AE227" s="1">
         <v>0</v>
@@ -27645,7 +27645,7 @@
         <v>1.4095238095238096</v>
       </c>
       <c r="AD228" s="1">
-        <v>1.5212919662010771E-2</v>
+        <v>-1.5212919662010771E-2</v>
       </c>
       <c r="AE228" s="1">
         <v>0</v>
@@ -27764,7 +27764,7 @@
         <v>2.4018691588785042</v>
       </c>
       <c r="AD229" s="1">
-        <v>-5.3408670832388316E-2</v>
+        <v>5.3408670832388316E-2</v>
       </c>
       <c r="AE229" s="1">
         <v>0</v>
@@ -27883,7 +27883,7 @@
         <v>1.0951156812339331</v>
       </c>
       <c r="AD230" s="1">
-        <v>5.9211273532431274E-3</v>
+        <v>-5.9211273532431274E-3</v>
       </c>
       <c r="AE230" s="1">
         <v>0</v>
@@ -28002,7 +28002,7 @@
         <v>1.2253968253968255</v>
       </c>
       <c r="AD231" s="1">
-        <v>-1.5807284778739827E-2</v>
+        <v>1.5807284778739827E-2</v>
       </c>
       <c r="AE231" s="1">
         <v>0</v>
@@ -28121,7 +28121,7 @@
         <v>1.6028037383177569</v>
       </c>
       <c r="AD232" s="1">
-        <v>-8.1516510818800403E-2</v>
+        <v>8.1516510818800403E-2</v>
       </c>
       <c r="AE232" s="1">
         <v>0</v>
@@ -28716,7 +28716,7 @@
         <v>1.1333333333333333</v>
       </c>
       <c r="AD237" s="1">
-        <v>-5.6825811704370732E-3</v>
+        <v>5.6825811704370732E-3</v>
       </c>
       <c r="AE237" s="1">
         <v>0</v>
@@ -28954,7 +28954,7 @@
         <v>1.1203703703703702</v>
       </c>
       <c r="AD239" s="1">
-        <v>-5.0992182708577971E-3</v>
+        <v>5.0992182708577971E-3</v>
       </c>
       <c r="AE239" s="1">
         <v>0</v>
@@ -29073,7 +29073,7 @@
         <v>1.1238095238095238</v>
       </c>
       <c r="AD240" s="1">
-        <v>-5.6825811704370732E-3</v>
+        <v>5.6825811704370732E-3</v>
       </c>
       <c r="AE240" s="1">
         <v>0</v>
@@ -29192,7 +29192,7 @@
         <v>0.8492063492063493</v>
       </c>
       <c r="AD241" s="1">
-        <v>-3.3420698398972326E-2</v>
+        <v>3.3420698398972326E-2</v>
       </c>
       <c r="AE241" s="1">
         <v>0</v>
@@ -29311,7 +29311,7 @@
         <v>1.1111111111111109</v>
       </c>
       <c r="AD242" s="1">
-        <v>3.5615565684707917E-3</v>
+        <v>-3.5615565684707917E-3</v>
       </c>
       <c r="AE242" s="1">
         <v>0</v>
@@ -29430,7 +29430,7 @@
         <v>1.2</v>
       </c>
       <c r="AD243" s="1">
-        <v>-5.6825811704370732E-3</v>
+        <v>5.6825811704370732E-3</v>
       </c>
       <c r="AE243" s="1">
         <v>0</v>
@@ -29549,7 +29549,7 @@
         <v>0.96825396825396826</v>
       </c>
       <c r="AD244" s="1">
-        <v>-2.3798674028368105E-2</v>
+        <v>2.3798674028368105E-2</v>
       </c>
       <c r="AE244" s="1">
         <v>0</v>
@@ -29668,7 +29668,7 @@
         <v>1.1018518518518516</v>
       </c>
       <c r="AD245" s="1">
-        <v>3.5615565684707917E-3</v>
+        <v>-3.5615565684707917E-3</v>
       </c>
       <c r="AE245" s="1">
         <v>0</v>
@@ -29787,7 +29787,7 @@
         <v>1.1523809523809523</v>
       </c>
       <c r="AD246" s="1">
-        <v>-5.6825811704370732E-3</v>
+        <v>5.6825811704370732E-3</v>
       </c>
       <c r="AE246" s="1">
         <v>0</v>
@@ -29906,7 +29906,7 @@
         <v>0.98412698412698418</v>
       </c>
       <c r="AD247" s="1">
-        <v>-2.3798674028368105E-2</v>
+        <v>2.3798674028368105E-2</v>
       </c>
       <c r="AE247" s="1">
         <v>0</v>
@@ -30025,7 +30025,7 @@
         <v>1.1574074074074074</v>
       </c>
       <c r="AD248" s="1">
-        <v>9.5032412160445112E-3</v>
+        <v>-9.5032412160445112E-3</v>
       </c>
       <c r="AE248" s="1">
         <v>0</v>
@@ -30144,7 +30144,7 @@
         <v>1.1238095238095238</v>
       </c>
       <c r="AD249" s="1">
-        <v>-4.1688616058923378E-2</v>
+        <v>4.1688616058923378E-2</v>
       </c>
       <c r="AE249" s="1">
         <v>0</v>
@@ -30263,7 +30263,7 @@
         <v>1.015873015873016</v>
       </c>
       <c r="AD250" s="1">
-        <v>-1.8006249091747972E-2</v>
+        <v>1.8006249091747972E-2</v>
       </c>
       <c r="AE250" s="1">
         <v>0</v>
@@ -30382,7 +30382,7 @@
         <v>1.1388888888888888</v>
       </c>
       <c r="AD251" s="1">
-        <v>-3.2791193371279448E-2</v>
+        <v>3.2791193371279448E-2</v>
       </c>
       <c r="AE251" s="1">
         <v>3.0702127011206514E-2</v>
@@ -30501,7 +30501,7 @@
         <v>1.1333333333333333</v>
       </c>
       <c r="AD252" s="1">
-        <v>-7.8273966491586577E-3</v>
+        <v>7.8273966491586577E-3</v>
       </c>
       <c r="AE252" s="1">
         <v>3.9950047721800913E-2</v>
@@ -30620,7 +30620,7 @@
         <v>0.94444444444444453</v>
       </c>
       <c r="AD253" s="1">
-        <v>-6.4007165883806061E-2</v>
+        <v>6.4007165883806061E-2</v>
       </c>
       <c r="AE253" s="1">
         <v>2.7493721547885052E-2</v>
@@ -31096,7 +31096,7 @@
         <v>0.53738910012674279</v>
       </c>
       <c r="AD257" s="1">
-        <v>-6.6156372632720561E-2</v>
+        <v>6.6156372632720561E-2</v>
       </c>
       <c r="AE257" s="1">
         <v>0.12628276365459595</v>
@@ -31215,7 +31215,7 @@
         <v>0.35855855855855856</v>
       </c>
       <c r="AD258" s="1">
-        <v>-6.0418368905849729E-2</v>
+        <v>6.0418368905849729E-2</v>
       </c>
       <c r="AE258" s="1">
         <v>0.11515218069343595</v>
@@ -31334,7 +31334,7 @@
         <v>0.35495495495495494</v>
       </c>
       <c r="AD259" s="1">
-        <v>-5.5789044948428623E-2</v>
+        <v>5.5789044948428623E-2</v>
       </c>
       <c r="AE259" s="1">
         <v>0.11299283316089424</v>
@@ -31453,7 +31453,7 @@
         <v>0.49302915082382764</v>
       </c>
       <c r="AD260" s="1">
-        <v>-7.8136760109727144E-2</v>
+        <v>7.8136760109727144E-2</v>
       </c>
       <c r="AE260" s="1">
         <v>0.16276178234291339</v>
@@ -31572,7 +31572,7 @@
         <v>0.32432432432432429</v>
       </c>
       <c r="AD261" s="1">
-        <v>-8.9008532254860828E-2</v>
+        <v>8.9008532254860828E-2</v>
       </c>
       <c r="AE261" s="1">
         <v>0.14130942935941293</v>
@@ -31691,7 +31691,7 @@
         <v>0.34234234234234234</v>
       </c>
       <c r="AD262" s="1">
-        <v>-7.1530321656152696E-2</v>
+        <v>7.1530321656152696E-2</v>
       </c>
       <c r="AE262" s="1">
         <v>0.16339897091118644</v>
@@ -31810,7 +31810,7 @@
         <v>0.54879594423320666</v>
       </c>
       <c r="AD263" s="1">
-        <v>-8.8184860156753198E-2</v>
+        <v>8.8184860156753198E-2</v>
       </c>
       <c r="AE263" s="1">
         <v>0.16569571999190419</v>
@@ -31929,7 +31929,7 @@
         <v>0.35135135135135137</v>
       </c>
       <c r="AD264" s="1">
-        <v>-8.9008532254860828E-2</v>
+        <v>8.9008532254860828E-2</v>
       </c>
       <c r="AE264" s="1">
         <v>0.1660661856758982</v>
@@ -32048,7 +32048,7 @@
         <v>0.2927927927927928</v>
       </c>
       <c r="AD265" s="1">
-        <v>-8.1325257669781381E-2</v>
+        <v>8.1325257669781381E-2</v>
       </c>
       <c r="AE265" s="1">
         <v>0.16820235574635697</v>
@@ -32167,7 +32167,7 @@
         <v>0.43726235741444863</v>
       </c>
       <c r="AD266" s="1">
-        <v>-9.7790447160848837E-2</v>
+        <v>9.7790447160848837E-2</v>
       </c>
       <c r="AE266" s="1">
         <v>0.18116433341597127</v>
@@ -32286,7 +32286,7 @@
         <v>0.29909909909909915</v>
       </c>
       <c r="AD267" s="1">
-        <v>-0.1083271513078401</v>
+        <v>0.1083271513078401</v>
       </c>
       <c r="AE267" s="1">
         <v>0.17643627029054124</v>
@@ -32405,7 +32405,7 @@
         <v>0.32972972972972975</v>
       </c>
       <c r="AD268" s="1">
-        <v>-8.7170268106278037E-2</v>
+        <v>8.7170268106278037E-2</v>
       </c>
       <c r="AE268" s="1">
         <v>0.21840325479299377</v>
@@ -32524,7 +32524,7 @@
         <v>0.47528517110266161</v>
       </c>
       <c r="AD269" s="1">
-        <v>-0.11425775280612172</v>
+        <v>0.11425775280612172</v>
       </c>
       <c r="AE269" s="1">
         <v>0.19727615837196472</v>
@@ -32643,7 +32643,7 @@
         <v>0.40450450450450454</v>
       </c>
       <c r="AD270" s="1">
-        <v>-0.12652535452794567</v>
+        <v>0.12652535452794567</v>
       </c>
       <c r="AE270" s="1">
         <v>0.18944297957332934</v>
@@ -32762,7 +32762,7 @@
         <v>0.36756756756756759</v>
       </c>
       <c r="AD271" s="1">
-        <v>-9.8589863567501546E-2</v>
+        <v>9.8589863567501546E-2</v>
       </c>
       <c r="AE271" s="1">
         <v>0.22398979478632619</v>
@@ -32881,7 +32881,7 @@
         <v>0.57794676806083645</v>
       </c>
       <c r="AD272" s="1">
-        <v>-0.12201498287836743</v>
+        <v>0.12201498287836743</v>
       </c>
       <c r="AE272" s="1">
         <v>0.21413551592491309</v>
@@ -33000,7 +33000,7 @@
         <v>0.40450450450450454</v>
       </c>
       <c r="AD273" s="1">
-        <v>-0.13531228028159048</v>
+        <v>0.13531228028159048</v>
       </c>
       <c r="AE273" s="1">
         <v>0.20452220253876896</v>
@@ -33119,7 +33119,7 @@
         <v>0.38738738738738737</v>
       </c>
       <c r="AD274" s="1">
-        <v>-0.13289209999775076</v>
+        <v>0.13289209999775076</v>
       </c>
       <c r="AE274" s="1">
         <v>0.2340609824594628</v>
@@ -33595,7 +33595,7 @@
         <v>0.36491228070175441</v>
       </c>
       <c r="AD278" s="1">
-        <v>-4.3221133351387331E-2</v>
+        <v>4.3221133351387331E-2</v>
       </c>
       <c r="AE278" s="1">
         <v>8.3683289902562949E-2</v>
@@ -33714,7 +33714,7 @@
         <v>0.34464285714285714</v>
       </c>
       <c r="AD279" s="1">
-        <v>-5.9626920467696243E-2</v>
+        <v>5.9626920467696243E-2</v>
       </c>
       <c r="AE279" s="1">
         <v>8.0401019337250593E-2</v>
@@ -33833,7 +33833,7 @@
         <v>0.33274336283185835</v>
       </c>
       <c r="AD280" s="1">
-        <v>-6.7206045341542842E-2</v>
+        <v>6.7206045341542842E-2</v>
       </c>
       <c r="AE280" s="1">
         <v>7.8073236948201175E-2</v>
@@ -33952,7 +33952,7 @@
         <v>0.42631578947368415</v>
       </c>
       <c r="AD281" s="1">
-        <v>-8.9094513971776146E-2</v>
+        <v>8.9094513971776146E-2</v>
       </c>
       <c r="AE281" s="1">
         <v>0.10230723855374141</v>
@@ -34071,7 +34071,7 @@
         <v>0.30535714285714288</v>
       </c>
       <c r="AD282" s="1">
-        <v>-6.5101139487667492E-2</v>
+        <v>6.5101139487667492E-2</v>
       </c>
       <c r="AE282" s="1">
         <v>0.1029387459966758</v>
@@ -34190,7 +34190,7 @@
         <v>0.34955752212389379</v>
       </c>
       <c r="AD283" s="1">
-        <v>-0.12776456908000278</v>
+        <v>0.12776456908000278</v>
       </c>
       <c r="AE283" s="1">
         <v>9.8277808077380957E-2</v>
@@ -34309,7 +34309,7 @@
         <v>0.33421052631578946</v>
       </c>
       <c r="AD284" s="1">
-        <v>-6.0442037595462739E-2</v>
+        <v>6.0442037595462739E-2</v>
       </c>
       <c r="AE284" s="1">
         <v>9.9490978745785733E-2</v>
@@ -34428,7 +34428,7 @@
         <v>0.34821428571428575</v>
       </c>
       <c r="AD285" s="1">
-        <v>-6.5101139487667492E-2</v>
+        <v>6.5101139487667492E-2</v>
       </c>
       <c r="AE285" s="1">
         <v>0.11800882487494561</v>
@@ -34547,7 +34547,7 @@
         <v>0.31769911504424775</v>
       </c>
       <c r="AD286" s="1">
-        <v>-0.13758709953413695</v>
+        <v>0.13758709953413695</v>
       </c>
       <c r="AE286" s="1">
         <v>0.11364813293472688</v>
@@ -34666,7 +34666,7 @@
         <v>0.31754385964912279</v>
       </c>
       <c r="AD287" s="1">
-        <v>-8.4751478978869033E-2</v>
+        <v>8.4751478978869033E-2</v>
       </c>
       <c r="AE287" s="1">
         <v>0.10732045030550651</v>
@@ -34785,7 +34785,7 @@
         <v>0.29464285714285721</v>
       </c>
       <c r="AD288" s="1">
-        <v>-8.2442769716537745E-2</v>
+        <v>8.2442769716537745E-2</v>
       </c>
       <c r="AE288" s="1">
         <v>0.13662652962248051</v>
@@ -34904,7 +34904,7 @@
         <v>0.2725663716814159</v>
       </c>
       <c r="AD289" s="1">
-        <v>-0.14665961827020679</v>
+        <v>0.14665961827020679</v>
       </c>
       <c r="AE289" s="1">
         <v>0.12325930069066644</v>
@@ -35023,7 +35023,7 @@
         <v>0.4201754385964912</v>
       </c>
       <c r="AD290" s="1">
-        <v>-0.11247993178362359</v>
+        <v>0.11247993178362359</v>
       </c>
       <c r="AE290" s="1">
         <v>0.12346674841556306</v>
@@ -35142,7 +35142,7 @@
         <v>0.36428571428571432</v>
       </c>
       <c r="AD291" s="1">
-        <v>-7.5306603819920159E-2</v>
+        <v>7.5306603819920159E-2</v>
       </c>
       <c r="AE291" s="1">
         <v>0.15385320466935218</v>
@@ -35261,7 +35261,7 @@
         <v>0.43451327433628317</v>
       </c>
       <c r="AD292" s="1">
-        <v>-0.14665961827020679</v>
+        <v>0.14665961827020679</v>
       </c>
       <c r="AE292" s="1">
         <v>0.13778961398407769</v>
@@ -35380,7 +35380,7 @@
         <v>0.39999999999999997</v>
       </c>
       <c r="AD293" s="1">
-        <v>-0.14584828533723782</v>
+        <v>0.14584828533723782</v>
       </c>
       <c r="AE293" s="1">
         <v>0.13081449711845095</v>
@@ -35499,7 +35499,7 @@
         <v>0.38839285714285715</v>
       </c>
       <c r="AD294" s="1">
-        <v>-9.5648990373011999E-2</v>
+        <v>9.5648990373011999E-2</v>
       </c>
       <c r="AE294" s="1">
         <v>0.1656429651958895</v>
@@ -35618,7 +35618,7 @@
         <v>0.35044247787610616</v>
       </c>
       <c r="AD295" s="1">
-        <v>-0.14665961827020679</v>
+        <v>0.14665961827020679</v>
       </c>
       <c r="AE295" s="1">
         <v>0.15594091621388517</v>
@@ -36094,7 +36094,7 @@
         <v>0.95817490494296575</v>
       </c>
       <c r="AD299" s="1">
-        <v>-4.5342475350741429E-3</v>
+        <v>4.5342475350741429E-3</v>
       </c>
       <c r="AE299" s="1">
         <v>0</v>
@@ -36213,7 +36213,7 @@
         <v>1.0458015267175573</v>
       </c>
       <c r="AD300" s="1">
-        <v>-3.9956462872233756E-3</v>
+        <v>3.9956462872233756E-3</v>
       </c>
       <c r="AE300" s="1">
         <v>0</v>
@@ -36451,7 +36451,7 @@
         <v>0.95057034220532322</v>
       </c>
       <c r="AD302" s="1">
-        <v>-4.5342475350741429E-3</v>
+        <v>4.5342475350741429E-3</v>
       </c>
       <c r="AE302" s="1">
         <v>0</v>
@@ -36570,7 +36570,7 @@
         <v>1.0152671755725191</v>
       </c>
       <c r="AD303" s="1">
-        <v>-1.894960372758292E-2</v>
+        <v>1.894960372758292E-2</v>
       </c>
       <c r="AE303" s="1">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>1.0509803921568628</v>
       </c>
       <c r="AD304" s="1">
-        <v>-2.1745367911124802E-2</v>
+        <v>2.1745367911124802E-2</v>
       </c>
       <c r="AE304" s="1">
         <v>0</v>
@@ -36738,100 +36738,100 @@
       <c r="F305">
         <v>35</v>
       </c>
-      <c r="G305" s="2">
-        <v>0.98772300104519606</v>
-      </c>
-      <c r="H305" s="2">
-        <v>0.84478371501272265</v>
-      </c>
-      <c r="I305" s="2">
-        <v>1.0372992414045561</v>
-      </c>
-      <c r="J305" s="2">
-        <v>0.89760348583878002</v>
-      </c>
-      <c r="K305" s="2">
-        <v>0.58833333333333326</v>
-      </c>
-      <c r="L305" s="2">
-        <v>1.0044743581464901</v>
-      </c>
-      <c r="M305" s="2">
-        <v>1.0543198906899427</v>
-      </c>
-      <c r="N305" s="2">
-        <v>0.73733583489681054</v>
-      </c>
-      <c r="O305" s="2">
-        <v>1.0803816657075633</v>
-      </c>
-      <c r="P305" s="2">
-        <v>1.1209201593661955</v>
-      </c>
-      <c r="Q305" s="2">
-        <v>1.0366560348011484</v>
-      </c>
-      <c r="R305" s="2">
-        <v>0.96923384758344855</v>
-      </c>
-      <c r="S305" s="2">
-        <v>1.1038960464296561</v>
-      </c>
-      <c r="T305" s="2">
-        <v>1.0173044228209684</v>
-      </c>
-      <c r="U305" s="2">
-        <v>1.1406511114040383</v>
-      </c>
-      <c r="V305" s="2">
-        <v>0.91959798994974906</v>
-      </c>
-      <c r="W305" s="2">
-        <v>0.87209302325581395</v>
-      </c>
-      <c r="X305" s="2">
-        <v>1.2528473804100229</v>
-      </c>
-      <c r="Y305" s="2">
-        <v>0.99173553719008267</v>
-      </c>
-      <c r="Z305" s="2">
-        <v>0.92560975609756102</v>
-      </c>
-      <c r="AA305" s="2">
-        <v>0.98201438848920863</v>
-      </c>
-      <c r="AB305" s="2">
-        <v>0.22147651006711411</v>
-      </c>
-      <c r="AC305" s="2">
-        <v>1.0266159695817489</v>
-      </c>
-      <c r="AD305" s="1">
-        <v>-1.2238606224473814E-2</v>
-      </c>
-      <c r="AE305" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF305" s="1">
-        <v>-0.68865414079509613</v>
-      </c>
-      <c r="AG305" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH305" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI305" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ305" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK305" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL305" s="4" t="s">
+      <c r="G305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK305" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL305" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM305" s="4" t="s">
@@ -36857,100 +36857,100 @@
       <c r="F306">
         <v>35</v>
       </c>
-      <c r="G306" s="2">
-        <v>0.97077620527738717</v>
-      </c>
-      <c r="H306" s="2">
-        <v>0.99714285714285711</v>
-      </c>
-      <c r="I306" s="2">
-        <v>0.91350573083947051</v>
-      </c>
-      <c r="J306" s="2">
-        <v>1.2577030812324932</v>
-      </c>
-      <c r="K306" s="2">
-        <v>0.74714828897338403</v>
-      </c>
-      <c r="L306" s="2">
-        <v>1.1057126905696875</v>
-      </c>
-      <c r="M306" s="2">
-        <v>0.98464173855000503</v>
-      </c>
-      <c r="N306" s="2">
-        <v>1.1800391389432485</v>
-      </c>
-      <c r="O306" s="2">
-        <v>0.87013490492123224</v>
-      </c>
-      <c r="P306" s="2">
-        <v>0.99412981318778071</v>
-      </c>
-      <c r="Q306" s="2">
-        <v>0.9958012561109425</v>
-      </c>
-      <c r="R306" s="2">
-        <v>0.92222868514671075</v>
-      </c>
-      <c r="S306" s="2">
-        <v>1.080808407782047</v>
-      </c>
-      <c r="T306" s="2">
-        <v>0.98669162975366065</v>
-      </c>
-      <c r="U306" s="2">
-        <v>1.2582787298032303</v>
-      </c>
-      <c r="V306" s="2">
-        <v>0.9747474747474747</v>
-      </c>
-      <c r="W306" s="2">
-        <v>0.84059945504087197</v>
-      </c>
-      <c r="X306" s="2">
-        <v>1.3211845102505695</v>
-      </c>
-      <c r="Y306" s="2">
-        <v>0.90566037735849048</v>
-      </c>
-      <c r="Z306" s="2">
-        <v>1.0213836477987421</v>
-      </c>
-      <c r="AA306" s="2">
-        <v>1.0405904059040589</v>
-      </c>
-      <c r="AB306" s="2">
-        <v>0.37416481069042323</v>
-      </c>
-      <c r="AC306" s="2">
-        <v>1.0648854961832062</v>
-      </c>
-      <c r="AD306" s="1">
-        <v>-4.1263735220560704E-2</v>
-      </c>
-      <c r="AE306" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF306" s="1">
-        <v>-0.78703330376582592</v>
-      </c>
-      <c r="AG306" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH306" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI306" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ306" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK306" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL306" s="4" t="s">
+      <c r="G306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK306" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL306" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM306" s="4" t="s">
@@ -36976,100 +36976,100 @@
       <c r="F307">
         <v>35</v>
       </c>
-      <c r="G307" s="2">
-        <v>0.86301398204141311</v>
-      </c>
-      <c r="H307" s="2">
-        <v>1.0885714285714285</v>
-      </c>
-      <c r="I307" s="2">
-        <v>0.99113415668955607</v>
-      </c>
-      <c r="J307" s="2">
-        <v>0.81380753138075301</v>
-      </c>
-      <c r="K307" s="2">
-        <v>0.4588910133843212</v>
-      </c>
-      <c r="L307" s="2">
-        <v>0.90938802185771783</v>
-      </c>
-      <c r="M307" s="2">
-        <v>1.1634391912661064</v>
-      </c>
-      <c r="N307" s="2">
-        <v>1.4130982367758185</v>
-      </c>
-      <c r="O307" s="2">
-        <v>0.66559816891589652</v>
-      </c>
-      <c r="P307" s="2">
-        <v>0.91010046910237297</v>
-      </c>
-      <c r="Q307" s="2">
-        <v>0.91038931054657446</v>
-      </c>
-      <c r="R307" s="2">
-        <v>1.1329258615832887</v>
-      </c>
-      <c r="S307" s="2">
-        <v>1.1045057363175319</v>
-      </c>
-      <c r="T307" s="2">
-        <v>1.0329583134409732</v>
-      </c>
-      <c r="U307" s="2">
-        <v>1.0006362269022597</v>
-      </c>
-      <c r="V307" s="2">
-        <v>0.98484848484848464</v>
-      </c>
-      <c r="W307" s="2">
-        <v>1.1030383091149272</v>
-      </c>
-      <c r="X307" s="2">
-        <v>1.160092807424594</v>
-      </c>
-      <c r="Y307" s="2">
-        <v>1.5652173913043481</v>
-      </c>
-      <c r="Z307" s="2">
-        <v>1.0438047559449311</v>
-      </c>
-      <c r="AA307" s="2">
-        <v>1.0471014492753623</v>
-      </c>
-      <c r="AB307" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC307" s="2">
-        <v>1.1333333333333335</v>
-      </c>
-      <c r="AD307" s="1">
-        <v>-2.1745367911124802E-2</v>
-      </c>
-      <c r="AE307" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF307" s="1">
-        <v>-0.59027497782436811</v>
-      </c>
-      <c r="AG307" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH307" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI307" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ307" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK307" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL307" s="4" t="s">
+      <c r="G307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK307" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL307" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM307" s="4" t="s">
@@ -37095,100 +37095,100 @@
       <c r="F308">
         <v>49</v>
       </c>
-      <c r="G308" s="2">
-        <v>0.90818592908671048</v>
-      </c>
-      <c r="H308" s="2">
-        <v>0.73027989821882955</v>
-      </c>
-      <c r="I308" s="2">
-        <v>1.1106794615046394</v>
-      </c>
-      <c r="J308" s="2">
-        <v>0.9978213507625272</v>
-      </c>
-      <c r="K308" s="2">
-        <v>0.43166666666666664</v>
-      </c>
-      <c r="L308" s="2">
-        <v>1.0546932355598149</v>
-      </c>
-      <c r="M308" s="2">
-        <v>1.0359718397088997</v>
-      </c>
-      <c r="N308" s="2">
-        <v>0.93433395872420277</v>
-      </c>
-      <c r="O308" s="2">
-        <v>1.0736821920401527</v>
-      </c>
-      <c r="P308" s="2">
-        <v>1.0314654777367598</v>
-      </c>
-      <c r="Q308" s="2">
-        <v>1.0730215288956642</v>
-      </c>
-      <c r="R308" s="2">
-        <v>1.0894441092133449</v>
-      </c>
-      <c r="S308" s="2">
-        <v>1.0530045799129899</v>
-      </c>
-      <c r="T308" s="2">
-        <v>0.90141887537016185</v>
-      </c>
-      <c r="U308" s="2">
-        <v>1.0937126353285007</v>
-      </c>
-      <c r="V308" s="2">
-        <v>0.7788944723618092</v>
-      </c>
-      <c r="W308" s="2">
-        <v>0.64244186046511631</v>
-      </c>
-      <c r="X308" s="2">
-        <v>1.4123006833712985</v>
-      </c>
-      <c r="Y308" s="2">
-        <v>0.76859504132231404</v>
-      </c>
-      <c r="Z308" s="2">
-        <v>0.80121951219512211</v>
-      </c>
-      <c r="AA308" s="2">
-        <v>0.91007194244604306</v>
-      </c>
-      <c r="AB308" s="2">
-        <v>4.0268456375838924E-2</v>
-      </c>
-      <c r="AC308" s="2">
-        <v>0.96197718631178697</v>
-      </c>
-      <c r="AD308" s="1">
-        <v>-2.6826031646766668E-2</v>
-      </c>
-      <c r="AE308" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF308" s="1">
-        <v>-0.59027497782436988</v>
-      </c>
-      <c r="AG308" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH308" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI308" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ308" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK308" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL308" s="4" t="s">
+      <c r="G308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK308" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL308" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM308" s="4" t="s">
@@ -37214,100 +37214,100 @@
       <c r="F309">
         <v>49</v>
       </c>
-      <c r="G309" s="2">
-        <v>0.92194723838632597</v>
-      </c>
-      <c r="H309" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="I309" s="2">
-        <v>0.9677174623915229</v>
-      </c>
-      <c r="J309" s="2">
-        <v>0.88515406162465005</v>
-      </c>
-      <c r="K309" s="2">
-        <v>0.35741444866920152</v>
-      </c>
-      <c r="L309" s="2">
-        <v>1.1874342006051644</v>
-      </c>
-      <c r="M309" s="2">
-        <v>0.9379387963343423</v>
-      </c>
-      <c r="N309" s="2">
-        <v>0.89823874755381594</v>
-      </c>
-      <c r="O309" s="2">
-        <v>0.88581292360987474</v>
-      </c>
-      <c r="P309" s="2">
-        <v>1.0674367975921388</v>
-      </c>
-      <c r="Q309" s="2">
-        <v>0.99995796098967171</v>
-      </c>
-      <c r="R309" s="2">
-        <v>0.89391806845207822</v>
-      </c>
-      <c r="S309" s="2">
-        <v>0.93148016384539334</v>
-      </c>
-      <c r="T309" s="2">
-        <v>1.0656344976157821</v>
-      </c>
-      <c r="U309" s="2">
-        <v>0.83443969814355634</v>
-      </c>
-      <c r="V309" s="2">
-        <v>0.89898989898989889</v>
-      </c>
-      <c r="W309" s="2">
-        <v>0.5122615803814714</v>
-      </c>
-      <c r="X309" s="2">
-        <v>1.571753986332574</v>
-      </c>
-      <c r="Y309" s="2">
-        <v>0.78301886792452835</v>
-      </c>
-      <c r="Z309" s="2">
-        <v>0.95723270440251573</v>
-      </c>
-      <c r="AA309" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB309" s="2">
-        <v>0.28953229398663699</v>
-      </c>
-      <c r="AC309" s="2">
-        <v>1.0267175572519083</v>
-      </c>
-      <c r="AD309" s="1">
-        <v>-4.1263735220560704E-2</v>
-      </c>
-      <c r="AE309" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF309" s="1">
-        <v>-0.49189581485364187</v>
-      </c>
-      <c r="AG309" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH309" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI309" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ309" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK309" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL309" s="4" t="s">
+      <c r="G309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK309" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL309" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM309" s="4" t="s">
@@ -37333,100 +37333,100 @@
       <c r="F310">
         <v>49</v>
       </c>
-      <c r="G310" s="2">
-        <v>0.83456278167630993</v>
-      </c>
-      <c r="H310" s="2">
-        <v>0.79142857142857137</v>
-      </c>
-      <c r="I310" s="2">
-        <v>1.0485818078317548</v>
-      </c>
-      <c r="J310" s="2">
-        <v>1.106694560669456</v>
-      </c>
-      <c r="K310" s="2">
-        <v>0.30975143403441685</v>
-      </c>
-      <c r="L310" s="2">
-        <v>0.95805242384996325</v>
-      </c>
-      <c r="M310" s="2">
-        <v>1.0999917716112906</v>
-      </c>
-      <c r="N310" s="2">
-        <v>1.0251889168765742</v>
-      </c>
-      <c r="O310" s="2">
-        <v>0.66025557317807981</v>
-      </c>
-      <c r="P310" s="2">
-        <v>0.91151140283978671</v>
-      </c>
-      <c r="Q310" s="2">
-        <v>0.89810433223974151</v>
-      </c>
-      <c r="R310" s="2">
-        <v>1.0611028097658792</v>
-      </c>
-      <c r="S310" s="2">
-        <v>1.1159930693250297</v>
-      </c>
-      <c r="T310" s="2">
-        <v>1.1336321447172781</v>
-      </c>
-      <c r="U310" s="2">
-        <v>0.81416646511175528</v>
-      </c>
-      <c r="V310" s="2">
-        <v>0.95454545454545447</v>
-      </c>
-      <c r="W310" s="2">
-        <v>1.0673712021136064</v>
-      </c>
-      <c r="X310" s="2">
-        <v>1.1484918793503482</v>
-      </c>
-      <c r="Y310" s="2">
-        <v>1.1594202898550727</v>
-      </c>
-      <c r="Z310" s="2">
-        <v>1.0087609511889863</v>
-      </c>
-      <c r="AA310" s="2">
-        <v>1.0014492753623188</v>
-      </c>
-      <c r="AB310" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC310" s="2">
-        <v>1.0823529411764705</v>
-      </c>
-      <c r="AD310" s="1">
-        <v>-2.9039578069042449E-2</v>
-      </c>
-      <c r="AE310" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF310" s="1">
-        <v>-0.39351665188291207</v>
-      </c>
-      <c r="AG310" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH310" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI310" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ310" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK310" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL310" s="4" t="s">
+      <c r="G310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL310" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM310" s="4" t="s">
@@ -37452,100 +37452,100 @@
       <c r="F311">
         <v>63</v>
       </c>
-      <c r="G311" s="2">
-        <v>0.86118796215036453</v>
-      </c>
-      <c r="H311" s="2">
-        <v>0.73282442748091592</v>
-      </c>
-      <c r="I311" s="2">
-        <v>0.87725513935730648</v>
-      </c>
-      <c r="J311" s="2">
-        <v>0.80392156862745101</v>
-      </c>
-      <c r="K311" s="2">
-        <v>0.55666666666666664</v>
-      </c>
-      <c r="L311" s="2">
-        <v>0.80590993291839352</v>
-      </c>
-      <c r="M311" s="2">
-        <v>0.8429024859843276</v>
-      </c>
-      <c r="N311" s="2">
-        <v>0.64540337711069418</v>
-      </c>
-      <c r="O311" s="2">
-        <v>0.87837382595593105</v>
-      </c>
-      <c r="P311" s="2">
-        <v>0.931958116974409</v>
-      </c>
-      <c r="Q311" s="2">
-        <v>0.74613234865118616</v>
-      </c>
-      <c r="R311" s="2">
-        <v>0.84182711153889489</v>
-      </c>
-      <c r="S311" s="2">
-        <v>0.97338576006366262</v>
-      </c>
-      <c r="T311" s="2">
-        <v>0.84191865942627275</v>
-      </c>
-      <c r="U311" s="2">
-        <v>1.0945105144493958</v>
-      </c>
-      <c r="V311" s="2">
-        <v>0.74371859296482434</v>
-      </c>
-      <c r="W311" s="2">
-        <v>0.47965116279069764</v>
-      </c>
-      <c r="X311" s="2">
-        <v>1.6287015945330299</v>
-      </c>
-      <c r="Y311" s="2">
-        <v>0.84297520661157033</v>
-      </c>
-      <c r="Z311" s="2">
-        <v>0.81463414634146347</v>
-      </c>
-      <c r="AA311" s="2">
-        <v>0.95683453237410077</v>
-      </c>
-      <c r="AB311" s="2">
-        <v>0.21476510067114093</v>
-      </c>
-      <c r="AC311" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD311" s="1">
-        <v>-3.8704207818638259E-2</v>
-      </c>
-      <c r="AE311" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF311" s="1">
-        <v>-2.5578582372389338</v>
-      </c>
-      <c r="AG311" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH311" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI311" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ311" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK311" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL311" s="4" t="s">
+      <c r="G311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK311" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL311" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM311" s="4" t="s">
@@ -37571,100 +37571,100 @@
       <c r="F312">
         <v>63</v>
       </c>
-      <c r="G312" s="2">
-        <v>0.79873664173930103</v>
-      </c>
-      <c r="H312" s="2">
-        <v>0.91142857142857137</v>
-      </c>
-      <c r="I312" s="2">
-        <v>0.83445993820102449</v>
-      </c>
-      <c r="J312" s="2">
-        <v>1.0252100840336136</v>
-      </c>
-      <c r="K312" s="2">
-        <v>0.56273764258555137</v>
-      </c>
-      <c r="L312" s="2">
-        <v>0.88856227349922534</v>
-      </c>
-      <c r="M312" s="2">
-        <v>0.77452842296356328</v>
-      </c>
-      <c r="N312" s="2">
-        <v>0.80039138943248522</v>
-      </c>
-      <c r="O312" s="2">
-        <v>0.77014176566010073</v>
-      </c>
-      <c r="P312" s="2">
-        <v>0.80771129489208882</v>
-      </c>
-      <c r="Q312" s="2">
-        <v>0.87560693922334498</v>
-      </c>
-      <c r="R312" s="2">
-        <v>0.77137874800732142</v>
-      </c>
-      <c r="S312" s="2">
-        <v>0.79913680921658203</v>
-      </c>
-      <c r="T312" s="2">
-        <v>1.0118842538187682</v>
-      </c>
-      <c r="U312" s="2">
-        <v>0.9239388881563706</v>
-      </c>
-      <c r="V312" s="2">
-        <v>0.85858585858585845</v>
-      </c>
-      <c r="W312" s="2">
-        <v>0.28882833787465945</v>
-      </c>
-      <c r="X312" s="2">
-        <v>1.867881548974943</v>
-      </c>
-      <c r="Y312" s="2">
-        <v>0.910377358490566</v>
-      </c>
-      <c r="Z312" s="2">
-        <v>1.0012578616352201</v>
-      </c>
-      <c r="AA312" s="2">
-        <v>1.0811808118081181</v>
-      </c>
-      <c r="AB312" s="2">
-        <v>0.9688195991091314</v>
-      </c>
-      <c r="AC312" s="2">
-        <v>1.083969465648855</v>
-      </c>
-      <c r="AD312" s="1">
-        <v>-5.3835007866212203E-2</v>
-      </c>
-      <c r="AE312" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF312" s="1">
-        <v>-2.1643415853560199</v>
-      </c>
-      <c r="AG312" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH312" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI312" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ312" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK312" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL312" s="4" t="s">
+      <c r="G312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK312" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL312" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM312" s="4" t="s">
@@ -37690,100 +37690,100 @@
       <c r="F313">
         <v>63</v>
       </c>
-      <c r="G313" s="2">
-        <v>0.7870014662044077</v>
-      </c>
-      <c r="H313" s="2">
-        <v>0.82571428571428562</v>
-      </c>
-      <c r="I313" s="2">
-        <v>0.85281427535898924</v>
-      </c>
-      <c r="J313" s="2">
-        <v>0.85564853556485343</v>
-      </c>
-      <c r="K313" s="2">
-        <v>0.72848948374760991</v>
-      </c>
-      <c r="L313" s="2">
-        <v>0.73881715103139578</v>
-      </c>
-      <c r="M313" s="2">
-        <v>0.92760960639682288</v>
-      </c>
-      <c r="N313" s="2">
-        <v>0.91435768261964723</v>
-      </c>
-      <c r="O313" s="2">
-        <v>0.55399113710304382</v>
-      </c>
-      <c r="P313" s="2">
-        <v>0.80694107401431947</v>
-      </c>
-      <c r="Q313" s="2">
-        <v>0.78823398889577467</v>
-      </c>
-      <c r="R313" s="2">
-        <v>0.84697269810567999</v>
-      </c>
-      <c r="S313" s="2">
-        <v>0.9815714952748138</v>
-      </c>
-      <c r="T313" s="2">
-        <v>0.90705331496364028</v>
-      </c>
-      <c r="U313" s="2">
-        <v>0.76203605138638075</v>
-      </c>
-      <c r="V313" s="2">
-        <v>0.92929292929292906</v>
-      </c>
-      <c r="W313" s="2">
-        <v>1.0396301188903567</v>
-      </c>
-      <c r="X313" s="2">
-        <v>1.1832946635730859</v>
-      </c>
-      <c r="Y313" s="2">
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="Z313" s="2">
-        <v>1.0237797246558198</v>
-      </c>
-      <c r="AA313" s="2">
-        <v>1.0217391304347825</v>
-      </c>
-      <c r="AB313" s="2">
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="AC313" s="2">
-        <v>1.1019607843137256</v>
-      </c>
-      <c r="AD313" s="1">
-        <v>-2.9039578069042449E-2</v>
-      </c>
-      <c r="AE313" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF313" s="1">
-        <v>-2.361099911297476</v>
-      </c>
-      <c r="AG313" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH313" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI313" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ313" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK313" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL313" s="4" t="s">
+      <c r="G313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK313" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL313" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM313" s="4" t="s">
@@ -37809,100 +37809,100 @@
       <c r="F314">
         <v>105</v>
       </c>
-      <c r="G314" s="2">
-        <v>0.9806829296176468</v>
-      </c>
-      <c r="H314" s="2">
-        <v>0.67430025445292607</v>
-      </c>
-      <c r="I314" s="2">
-        <v>1.0161417814100668</v>
-      </c>
-      <c r="J314" s="2">
-        <v>0.97821350762527237</v>
-      </c>
-      <c r="K314" s="2">
-        <v>0.23499999999999996</v>
-      </c>
-      <c r="L314" s="2">
-        <v>0.89995966810506245</v>
-      </c>
-      <c r="M314" s="2">
-        <v>1.0229526901323915</v>
-      </c>
-      <c r="N314" s="2">
-        <v>0.87804878048780488</v>
-      </c>
-      <c r="O314" s="2">
-        <v>1.0045710910186347</v>
-      </c>
-      <c r="P314" s="2">
-        <v>1.0676950870779205</v>
-      </c>
-      <c r="Q314" s="2">
-        <v>0.95251782154158571</v>
-      </c>
-      <c r="R314" s="2">
-        <v>0.89692560297214952</v>
-      </c>
-      <c r="S314" s="2">
-        <v>1.001710139067794</v>
-      </c>
-      <c r="T314" s="2">
-        <v>0.97518501655949896</v>
-      </c>
-      <c r="U314" s="2">
-        <v>1.3029542881261973</v>
-      </c>
-      <c r="V314" s="2">
-        <v>0.73567839195979923</v>
-      </c>
-      <c r="W314" s="2">
-        <v>0.43023255813953487</v>
-      </c>
-      <c r="X314" s="2">
-        <v>1.7312072892938497</v>
-      </c>
-      <c r="Y314" s="2">
-        <v>0.76033057851239672</v>
-      </c>
-      <c r="Z314" s="2">
-        <v>0.72073170731707326</v>
-      </c>
-      <c r="AA314" s="2">
-        <v>0.97482014388489213</v>
-      </c>
-      <c r="AB314" s="2">
-        <v>0.79194630872483218</v>
-      </c>
-      <c r="AC314" s="2">
-        <v>0.9847908745247147</v>
-      </c>
-      <c r="AD314" s="1">
-        <v>-3.8704207818638259E-2</v>
-      </c>
-      <c r="AE314" s="1">
-        <v>4.3833215687450536E-2</v>
-      </c>
-      <c r="AF314" s="1">
-        <v>-2.1443431981291834</v>
-      </c>
-      <c r="AG314" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH314" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI314" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ314" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK314" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL314" s="4" t="s">
+      <c r="G314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK314" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL314" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM314" s="4" t="s">
@@ -37928,100 +37928,100 @@
       <c r="F315">
         <v>105</v>
       </c>
-      <c r="G315" s="2">
-        <v>0.94469398986817765</v>
-      </c>
-      <c r="H315" s="2">
-        <v>0.59428571428571431</v>
-      </c>
-      <c r="I315" s="2">
-        <v>0.87916541218718747</v>
-      </c>
-      <c r="J315" s="2">
-        <v>1.3137254901960786</v>
-      </c>
-      <c r="K315" s="2">
-        <v>0.92585551330798499</v>
-      </c>
-      <c r="L315" s="2">
-        <v>1.1348341532354709</v>
-      </c>
-      <c r="M315" s="2">
-        <v>0.8450673337032869</v>
-      </c>
-      <c r="N315" s="2">
-        <v>0.76125244618395294</v>
-      </c>
-      <c r="O315" s="2">
-        <v>0.87804367709948539</v>
-      </c>
-      <c r="P315" s="2">
-        <v>0.91281570623261377</v>
-      </c>
-      <c r="Q315" s="2">
-        <v>0.95485553584614413</v>
-      </c>
-      <c r="R315" s="2">
-        <v>0.76102629862241611</v>
-      </c>
-      <c r="S315" s="2">
-        <v>0.87100354431191074</v>
-      </c>
-      <c r="T315" s="2">
-        <v>0.89559560958241213</v>
-      </c>
-      <c r="U315" s="2">
-        <v>0.63076599128613808</v>
-      </c>
-      <c r="V315" s="2">
-        <v>0.82424242424242422</v>
-      </c>
-      <c r="W315" s="2">
-        <v>0.19073569482288827</v>
-      </c>
-      <c r="X315" s="2">
-        <v>1.9020501138952164</v>
-      </c>
-      <c r="Y315" s="2">
-        <v>0.87264150943396224</v>
-      </c>
-      <c r="Z315" s="2">
-        <v>0.84654088050314469</v>
-      </c>
-      <c r="AA315" s="2">
-        <v>1.0258302583025829</v>
-      </c>
-      <c r="AB315" s="2">
-        <v>1.2694877505567927</v>
-      </c>
-      <c r="AC315" s="2">
-        <v>1.0152671755725191</v>
-      </c>
-      <c r="AD315" s="1">
-        <v>-5.9309926503480437E-2</v>
-      </c>
-      <c r="AE315" s="1">
-        <v>4.5646688484014319E-2</v>
-      </c>
-      <c r="AF315" s="1">
-        <v>-2.5099588742843313</v>
-      </c>
-      <c r="AG315" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH315" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI315" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ315" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK315" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL315" s="4" t="s">
+      <c r="G315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK315" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL315" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM315" s="4" t="s">
@@ -38047,100 +38047,100 @@
       <c r="F316">
         <v>105</v>
       </c>
-      <c r="G316" s="2">
-        <v>0.89315770651717175</v>
-      </c>
-      <c r="H316" s="2">
-        <v>1.0485714285714285</v>
-      </c>
-      <c r="I316" s="2">
-        <v>0.8992371220025418</v>
-      </c>
-      <c r="J316" s="2">
-        <v>0.7698744769874476</v>
-      </c>
-      <c r="K316" s="2">
-        <v>0.64053537284894835</v>
-      </c>
-      <c r="L316" s="2">
-        <v>0.85804491606595124</v>
-      </c>
-      <c r="M316" s="2">
-        <v>1.1054440432265855</v>
-      </c>
-      <c r="N316" s="2">
-        <v>0.63224181360201515</v>
-      </c>
-      <c r="O316" s="2">
-        <v>0.63754551372647728</v>
-      </c>
-      <c r="P316" s="2">
-        <v>0.98643144723150111</v>
-      </c>
-      <c r="Q316" s="2">
-        <v>0.79484947801926431</v>
-      </c>
-      <c r="R316" s="2">
-        <v>0.90472419006424376</v>
-      </c>
-      <c r="S316" s="2">
-        <v>1.0222559736360455</v>
-      </c>
-      <c r="T316" s="2">
-        <v>0.93952299093239267</v>
-      </c>
-      <c r="U316" s="2">
-        <v>0.72870413698407221</v>
-      </c>
-      <c r="V316" s="2">
-        <v>0.94747474747474747</v>
-      </c>
-      <c r="W316" s="2">
-        <v>1.0686922060766182</v>
-      </c>
-      <c r="X316" s="2">
-        <v>1.1716937354988399</v>
-      </c>
-      <c r="Y316" s="2">
-        <v>1.4202898550724639</v>
-      </c>
-      <c r="Z316" s="2">
-        <v>0.98748435544430535</v>
-      </c>
-      <c r="AA316" s="2">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="AB316" s="2">
-        <v>0.88725490196078427</v>
-      </c>
-      <c r="AC316" s="2">
-        <v>1.1019607843137256</v>
-      </c>
-      <c r="AD316" s="1">
-        <v>-0.17689282164896025</v>
-      </c>
-      <c r="AE316" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF316" s="1">
-        <v>-2.3362632045802734</v>
-      </c>
-      <c r="AG316" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH316" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI316" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ316" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK316" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL316" s="4" t="s">
+      <c r="G316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK316" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL316" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM316" s="4" t="s">
@@ -49233,100 +49233,100 @@
       <c r="F410">
         <v>35</v>
       </c>
-      <c r="G410" s="2">
-        <v>0.921517235730405</v>
-      </c>
-      <c r="H410" s="2">
-        <v>1.411764705882353</v>
-      </c>
-      <c r="I410" s="2">
-        <v>0.92430154590384483</v>
-      </c>
-      <c r="J410" s="2">
-        <v>1.3411764705882354</v>
-      </c>
-      <c r="K410" s="2">
-        <v>1.0465116279069766</v>
-      </c>
-      <c r="L410" s="2">
-        <v>0.93069176585709801</v>
-      </c>
-      <c r="M410" s="2">
-        <v>0.95923558817911414</v>
-      </c>
-      <c r="N410" s="2">
-        <v>1.1081677704194259</v>
-      </c>
-      <c r="O410" s="2">
-        <v>0.96399250005533443</v>
-      </c>
-      <c r="P410" s="2">
-        <v>0.81881161112795153</v>
-      </c>
-      <c r="Q410" s="2">
-        <v>0.90453501499378874</v>
-      </c>
-      <c r="R410" s="2">
-        <v>0.85753331580560166</v>
-      </c>
-      <c r="S410" s="2">
-        <v>0.9090943093328856</v>
-      </c>
-      <c r="T410" s="2">
-        <v>0.93816856189382336</v>
-      </c>
-      <c r="U410" s="2">
-        <v>0.74054445413695358</v>
-      </c>
-      <c r="V410" s="2">
-        <v>0.99499999999999966</v>
-      </c>
-      <c r="W410" s="2">
-        <v>0.94884910485933505</v>
-      </c>
-      <c r="X410" s="2">
-        <v>1.1494785631517959</v>
-      </c>
-      <c r="Y410" s="2">
-        <v>1.0999999999999999</v>
-      </c>
-      <c r="Z410" s="2">
-        <v>1.0486891385767791</v>
-      </c>
-      <c r="AA410" s="2">
-        <v>1.033210332103321</v>
-      </c>
-      <c r="AB410" s="2">
-        <v>0.62406015037593987</v>
-      </c>
-      <c r="AC410" s="2">
-        <v>1.054263565891473</v>
-      </c>
-      <c r="AD410" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE410" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF410" s="1">
-        <v>-0.59027497782436988</v>
-      </c>
-      <c r="AG410" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH410" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI410" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ410" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK410" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL410" s="4" t="s">
+      <c r="G410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK410" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL410" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM410" s="4" t="s">
@@ -49352,100 +49352,100 @@
       <c r="F411">
         <v>35</v>
       </c>
-      <c r="G411" s="2">
-        <v>0.95742046746033826</v>
-      </c>
-      <c r="H411" s="2">
-        <v>1.5770925110132157</v>
-      </c>
-      <c r="I411" s="2">
-        <v>1.0964297370203979</v>
-      </c>
-      <c r="J411" s="2">
-        <v>0.85106382978723394</v>
-      </c>
-      <c r="K411" s="2">
-        <v>2.3456221198156681</v>
-      </c>
-      <c r="L411" s="2">
-        <v>1.1495768344852817</v>
-      </c>
-      <c r="M411" s="2">
-        <v>1.145149838056011</v>
-      </c>
-      <c r="N411" s="2">
-        <v>0.80375782881002089</v>
-      </c>
-      <c r="O411" s="2">
-        <v>1.0340569978636454</v>
-      </c>
-      <c r="P411" s="2">
-        <v>0.91846282424434345</v>
-      </c>
-      <c r="Q411" s="2">
-        <v>0.92449203134595259</v>
-      </c>
-      <c r="R411" s="2">
-        <v>0.99807453642534616</v>
-      </c>
-      <c r="S411" s="2">
-        <v>0.92245889499877687</v>
-      </c>
-      <c r="T411" s="2">
-        <v>1.1616984392585947</v>
-      </c>
-      <c r="U411" s="2">
-        <v>1.0086730965505841</v>
-      </c>
-      <c r="V411" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="W411" s="2">
-        <v>1.0177439797211663</v>
-      </c>
-      <c r="X411" s="2">
-        <v>1.1662817551963047</v>
-      </c>
-      <c r="Y411" s="2">
-        <v>0.92592592592592582</v>
-      </c>
-      <c r="Z411" s="2">
-        <v>0.99288256227757998</v>
-      </c>
-      <c r="AA411" s="2">
-        <v>0.98220640569395001</v>
-      </c>
-      <c r="AB411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC411" s="2">
-        <v>1.0526315789473684</v>
-      </c>
-      <c r="AD411" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE411" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF411" s="1">
-        <v>-0.6886541407950979</v>
-      </c>
-      <c r="AG411" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH411" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI411" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ411" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK411" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL411" s="4" t="s">
+      <c r="G411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK411" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL411" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM411" s="4" t="s">
@@ -49471,100 +49471,100 @@
       <c r="F412">
         <v>35</v>
       </c>
-      <c r="G412" s="2">
-        <v>0.79384272071892859</v>
-      </c>
-      <c r="H412" s="2">
-        <v>1.3859649122807021</v>
-      </c>
-      <c r="I412" s="2">
-        <v>1.0658873325949649</v>
-      </c>
-      <c r="J412" s="2">
-        <v>1.0290556900726393</v>
-      </c>
-      <c r="K412" s="2">
-        <v>1.3947990543735223</v>
-      </c>
-      <c r="L412" s="2">
-        <v>0.87819595976175402</v>
-      </c>
-      <c r="M412" s="2">
-        <v>1.0769762066156223</v>
-      </c>
-      <c r="N412" s="2">
-        <v>0.68397847660441879</v>
-      </c>
-      <c r="O412" s="2">
-        <v>0.90431802504542935</v>
-      </c>
-      <c r="P412" s="2">
-        <v>0.97865082601163078</v>
-      </c>
-      <c r="Q412" s="2">
-        <v>1.0619576192618956</v>
-      </c>
-      <c r="R412" s="2">
-        <v>0.97963973326877385</v>
-      </c>
-      <c r="S412" s="2">
-        <v>0.96746973558726213</v>
-      </c>
-      <c r="T412" s="2">
-        <v>1.109802507490143</v>
-      </c>
-      <c r="U412" s="2">
-        <v>1.4168282736124493</v>
-      </c>
-      <c r="V412" s="2">
-        <v>0.98492462311557827</v>
-      </c>
-      <c r="W412" s="2">
-        <v>1.0776196636481241</v>
-      </c>
-      <c r="X412" s="2">
-        <v>1.1564625850340136</v>
-      </c>
-      <c r="Y412" s="2">
-        <v>1.0135135135135136</v>
-      </c>
-      <c r="Z412" s="2">
-        <v>1.0559701492537314</v>
-      </c>
-      <c r="AA412" s="2">
-        <v>1.0485294117647059</v>
-      </c>
-      <c r="AB412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC412" s="2">
-        <v>1.0961538461538463</v>
-      </c>
-      <c r="AD412" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE412" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF412" s="1">
-        <v>-0.98379162970728196</v>
-      </c>
-      <c r="AG412" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH412" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI412" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ412" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK412" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL412" s="4" t="s">
+      <c r="G412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK412" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL412" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM412" s="4" t="s">
@@ -49590,100 +49590,100 @@
       <c r="F413">
         <v>49</v>
       </c>
-      <c r="G413" s="2">
-        <v>0.95527955999162883</v>
-      </c>
-      <c r="H413" s="2">
-        <v>1.3215686274509806</v>
-      </c>
-      <c r="I413" s="2">
-        <v>1.0482613480104339</v>
-      </c>
-      <c r="J413" s="2">
-        <v>1.0382352941176469</v>
-      </c>
-      <c r="K413" s="2">
-        <v>1.193798449612403</v>
-      </c>
-      <c r="L413" s="2">
-        <v>0.93147597639693969</v>
-      </c>
-      <c r="M413" s="2">
-        <v>1.0180703831835534</v>
-      </c>
-      <c r="N413" s="2">
-        <v>1.052980132450331</v>
-      </c>
-      <c r="O413" s="2">
-        <v>1.0696514087396625</v>
-      </c>
-      <c r="P413" s="2">
-        <v>0.99484731416374383</v>
-      </c>
-      <c r="Q413" s="2">
-        <v>1.1100328048622374</v>
-      </c>
-      <c r="R413" s="2">
-        <v>0.95718113021579809</v>
-      </c>
-      <c r="S413" s="2">
-        <v>0.94878498752202611</v>
-      </c>
-      <c r="T413" s="2">
-        <v>1.1029706751696189</v>
-      </c>
-      <c r="U413" s="2">
-        <v>0.77426749805100836</v>
-      </c>
-      <c r="V413" s="2">
-        <v>0.95999999999999985</v>
-      </c>
-      <c r="W413" s="2">
-        <v>1.0204603580562659</v>
-      </c>
-      <c r="X413" s="2">
-        <v>1.2050984936268829</v>
-      </c>
-      <c r="Y413" s="2">
-        <v>1.5461538461538462</v>
-      </c>
-      <c r="Z413" s="2">
-        <v>1.0224719101123596</v>
-      </c>
-      <c r="AA413" s="2">
-        <v>1.0546125461254614</v>
-      </c>
-      <c r="AB413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC413" s="2">
-        <v>1.1085271317829457</v>
-      </c>
-      <c r="AD413" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE413" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF413" s="1">
-        <v>-0.6886541407950979</v>
-      </c>
-      <c r="AG413" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH413" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI413" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ413" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK413" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL413" s="4" t="s">
+      <c r="G413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK413" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL413" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM413" s="4" t="s">
@@ -49709,100 +49709,100 @@
       <c r="F414">
         <v>49</v>
       </c>
-      <c r="G414" s="2">
-        <v>0.8986573400837361</v>
-      </c>
-      <c r="H414" s="2">
-        <v>1.5859030837004406</v>
-      </c>
-      <c r="I414" s="2">
-        <v>1.0057302204891816</v>
-      </c>
-      <c r="J414" s="2">
-        <v>0.89361702127659559</v>
-      </c>
-      <c r="K414" s="2">
-        <v>1.8801843317972349</v>
-      </c>
-      <c r="L414" s="2">
-        <v>1.0443343996874603</v>
-      </c>
-      <c r="M414" s="2">
-        <v>1.060934575819358</v>
-      </c>
-      <c r="N414" s="2">
-        <v>0.97077244258872653</v>
-      </c>
-      <c r="O414" s="2">
-        <v>1.0201159594635585</v>
-      </c>
-      <c r="P414" s="2">
-        <v>1.0046850976324289</v>
-      </c>
-      <c r="Q414" s="2">
-        <v>0.93369127244956474</v>
-      </c>
-      <c r="R414" s="2">
-        <v>0.88490558937529873</v>
-      </c>
-      <c r="S414" s="2">
-        <v>1.0134358593638644</v>
-      </c>
-      <c r="T414" s="2">
-        <v>1.1604158351405798</v>
-      </c>
-      <c r="U414" s="2">
-        <v>0.91825300819581224</v>
-      </c>
-      <c r="V414" s="2">
-        <v>0.96999999999999986</v>
-      </c>
-      <c r="W414" s="2">
-        <v>1.064638783269962</v>
-      </c>
-      <c r="X414" s="2">
-        <v>1.2124711316397228</v>
-      </c>
-      <c r="Y414" s="2">
-        <v>1.1111111111111109</v>
-      </c>
-      <c r="Z414" s="2">
-        <v>0.96559905100830357</v>
-      </c>
-      <c r="AA414" s="2">
-        <v>1.0263345195729536</v>
-      </c>
-      <c r="AB414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC414" s="2">
-        <v>1.0827067669172932</v>
-      </c>
-      <c r="AD414" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE414" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF414" s="1">
-        <v>-0.59027497782436988</v>
-      </c>
-      <c r="AG414" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH414" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI414" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ414" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK414" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL414" s="4" t="s">
+      <c r="G414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK414" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL414" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM414" s="4" t="s">
@@ -49828,100 +49828,100 @@
       <c r="F415">
         <v>49</v>
       </c>
-      <c r="G415" s="2">
-        <v>0.82795502885100558</v>
-      </c>
-      <c r="H415" s="2">
-        <v>1.4385964912280702</v>
-      </c>
-      <c r="I415" s="2">
-        <v>1.2247183879508774</v>
-      </c>
-      <c r="J415" s="2">
-        <v>1.1719128329297821</v>
-      </c>
-      <c r="K415" s="2">
-        <v>0.84869976359338051</v>
-      </c>
-      <c r="L415" s="2">
-        <v>0.90880731481325849</v>
-      </c>
-      <c r="M415" s="2">
-        <v>1.1044638366611133</v>
-      </c>
-      <c r="N415" s="2">
-        <v>0.80527383367139971</v>
-      </c>
-      <c r="O415" s="2">
-        <v>0.95361957204371783</v>
-      </c>
-      <c r="P415" s="2">
-        <v>1.1256528089135243</v>
-      </c>
-      <c r="Q415" s="2">
-        <v>1.0417886431038597</v>
-      </c>
-      <c r="R415" s="2">
-        <v>1.0943688336778872</v>
-      </c>
-      <c r="S415" s="2">
-        <v>0.9418465264672703</v>
-      </c>
-      <c r="T415" s="2">
-        <v>1.0749995952765323</v>
-      </c>
-      <c r="U415" s="2">
-        <v>1.6436953972997839</v>
-      </c>
-      <c r="V415" s="2">
-        <v>0.96482412060301526</v>
-      </c>
-      <c r="W415" s="2">
-        <v>1.1021992238033633</v>
-      </c>
-      <c r="X415" s="2">
-        <v>1.1904761904761905</v>
-      </c>
-      <c r="Y415" s="2">
-        <v>1.1283783783783785</v>
-      </c>
-      <c r="Z415" s="2">
-        <v>1.0348258706467663</v>
-      </c>
-      <c r="AA415" s="2">
-        <v>1.0665441176470589</v>
-      </c>
-      <c r="AB415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC415" s="2">
-        <v>1.1153846153846154</v>
-      </c>
-      <c r="AD415" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE415" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF415" s="1">
-        <v>-0.88541246673655394</v>
-      </c>
-      <c r="AG415" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH415" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI415" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ415" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK415" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL415" s="4" t="s">
+      <c r="G415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK415" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL415" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM415" s="4" t="s">
@@ -49947,100 +49947,100 @@
       <c r="F416">
         <v>63</v>
       </c>
-      <c r="G416" s="2">
-        <v>0.8215443797137546</v>
-      </c>
-      <c r="H416" s="2">
-        <v>1.1294117647058823</v>
-      </c>
-      <c r="I416" s="2">
-        <v>0.85430144797867646</v>
-      </c>
-      <c r="J416" s="2">
-        <v>0.71764705882352942</v>
-      </c>
-      <c r="K416" s="2">
-        <v>0.75193798449612392</v>
-      </c>
-      <c r="L416" s="2">
-        <v>0.80764720057627137</v>
-      </c>
-      <c r="M416" s="2">
-        <v>0.83443481442936529</v>
-      </c>
-      <c r="N416" s="2">
-        <v>0.71523178807947008</v>
-      </c>
-      <c r="O416" s="2">
-        <v>0.86574916698990922</v>
-      </c>
-      <c r="P416" s="2">
-        <v>0.79108006773572659</v>
-      </c>
-      <c r="Q416" s="2">
-        <v>0.80056458879442449</v>
-      </c>
-      <c r="R416" s="2">
-        <v>0.84407465577697982</v>
-      </c>
-      <c r="S416" s="2">
-        <v>0.85450855317703411</v>
-      </c>
-      <c r="T416" s="2">
-        <v>0.89315511972377837</v>
-      </c>
-      <c r="U416" s="2">
-        <v>0.80413622028738763</v>
-      </c>
-      <c r="V416" s="2">
-        <v>0.94999999999999984</v>
-      </c>
-      <c r="W416" s="2">
-        <v>1.0051150895140666</v>
-      </c>
-      <c r="X416" s="2">
-        <v>1.1935110081112399</v>
-      </c>
-      <c r="Y416" s="2">
-        <v>1.8307692307692307</v>
-      </c>
-      <c r="Z416" s="2">
-        <v>1.0362047440699127</v>
-      </c>
-      <c r="AA416" s="2">
-        <v>1.0642066420664207</v>
-      </c>
-      <c r="AB416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC416" s="2">
-        <v>1.1201550387596899</v>
-      </c>
-      <c r="AD416" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE416" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF416" s="1">
-        <v>-2.1643415853560199</v>
-      </c>
-      <c r="AG416" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH416" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI416" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ416" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK416" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL416" s="4" t="s">
+      <c r="G416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK416" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL416" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM416" s="4" t="s">
@@ -50066,100 +50066,100 @@
       <c r="F417">
         <v>63</v>
       </c>
-      <c r="G417" s="2">
-        <v>0.79922474081492834</v>
-      </c>
-      <c r="H417" s="2">
-        <v>1.4185022026431719</v>
-      </c>
-      <c r="I417" s="2">
-        <v>0.81197882839349211</v>
-      </c>
-      <c r="J417" s="2">
-        <v>0.96926713947990517</v>
-      </c>
-      <c r="K417" s="2">
-        <v>1.4377880184331797</v>
-      </c>
-      <c r="L417" s="2">
-        <v>0.9043475767373218</v>
-      </c>
-      <c r="M417" s="2">
-        <v>0.95696964926984185</v>
-      </c>
-      <c r="N417" s="2">
-        <v>0.78705636743215024</v>
-      </c>
-      <c r="O417" s="2">
-        <v>0.83144041229538979</v>
-      </c>
-      <c r="P417" s="2">
-        <v>0.87498504662669796</v>
-      </c>
-      <c r="Q417" s="2">
-        <v>0.79322128879309828</v>
-      </c>
-      <c r="R417" s="2">
-        <v>0.82388375920638557</v>
-      </c>
-      <c r="S417" s="2">
-        <v>0.74958140312139532</v>
-      </c>
-      <c r="T417" s="2">
-        <v>0.92750637073141251</v>
-      </c>
-      <c r="U417" s="2">
-        <v>1.053452966613837</v>
-      </c>
-      <c r="V417" s="2">
-        <v>0.93999999999999984</v>
-      </c>
-      <c r="W417" s="2">
-        <v>1.0481622306717364</v>
-      </c>
-      <c r="X417" s="2">
-        <v>1.2009237875288683</v>
-      </c>
-      <c r="Y417" s="2">
-        <v>1.0493827160493827</v>
-      </c>
-      <c r="Z417" s="2">
-        <v>0.99762752075919336</v>
-      </c>
-      <c r="AA417" s="2">
-        <v>1.0241992882562276</v>
-      </c>
-      <c r="AB417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC417" s="2">
-        <v>1.0827067669172932</v>
-      </c>
-      <c r="AD417" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE417" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF417" s="1">
-        <v>-2.0659624223852919</v>
-      </c>
-      <c r="AG417" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH417" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI417" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ417" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK417" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL417" s="4" t="s">
+      <c r="G417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK417" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL417" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM417" s="4" t="s">
@@ -50185,100 +50185,100 @@
       <c r="F418">
         <v>63</v>
       </c>
-      <c r="G418" s="2">
-        <v>0.75159869794965695</v>
-      </c>
-      <c r="H418" s="2">
-        <v>1.986842105263158</v>
-      </c>
-      <c r="I418" s="2">
-        <v>1.0386769378828398</v>
-      </c>
-      <c r="J418" s="2">
-        <v>0.76271186440677963</v>
-      </c>
-      <c r="K418" s="2">
-        <v>0.81323877068557904</v>
-      </c>
-      <c r="L418" s="2">
-        <v>0.77026104612247648</v>
-      </c>
-      <c r="M418" s="2">
-        <v>0.91015973766452218</v>
-      </c>
-      <c r="N418" s="2">
-        <v>0.71399594320486814</v>
-      </c>
-      <c r="O418" s="2">
-        <v>0.82725269136793855</v>
-      </c>
-      <c r="P418" s="2">
-        <v>1.0185463336364331</v>
-      </c>
-      <c r="Q418" s="2">
-        <v>0.96151425261861567</v>
-      </c>
-      <c r="R418" s="2">
-        <v>1.0228813977331983</v>
-      </c>
-      <c r="S418" s="2">
-        <v>0.93408681702645935</v>
-      </c>
-      <c r="T418" s="2">
-        <v>0.99444649325671575</v>
-      </c>
-      <c r="U418" s="2">
-        <v>0.85444948902995443</v>
-      </c>
-      <c r="V418" s="2">
-        <v>0.93969849246231174</v>
-      </c>
-      <c r="W418" s="2">
-        <v>1.0815006468305304</v>
-      </c>
-      <c r="X418" s="2">
-        <v>1.1791383219954648</v>
-      </c>
-      <c r="Y418" s="2">
-        <v>1.4864864864864866</v>
-      </c>
-      <c r="Z418" s="2">
-        <v>1.0348258706467663</v>
-      </c>
-      <c r="AA418" s="2">
-        <v>1.0764705882352941</v>
-      </c>
-      <c r="AB418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC418" s="2">
-        <v>1.1269230769230769</v>
-      </c>
-      <c r="AD418" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE418" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF418" s="1">
-        <v>-2.361099911297476</v>
-      </c>
-      <c r="AG418" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH418" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI418" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ418" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK418" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL418" s="4" t="s">
+      <c r="G418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK418" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL418" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM418" s="4" t="s">
@@ -50304,100 +50304,100 @@
       <c r="F419">
         <v>105</v>
       </c>
-      <c r="G419" s="2">
-        <v>0.87221626175707234</v>
-      </c>
-      <c r="H419" s="2">
-        <v>1.4235294117647057</v>
-      </c>
-      <c r="I419" s="2">
-        <v>0.89901131180840932</v>
-      </c>
-      <c r="J419" s="2">
-        <v>0.6705882352941176</v>
-      </c>
-      <c r="K419" s="2">
-        <v>1.2364341085271318</v>
-      </c>
-      <c r="L419" s="2">
-        <v>0.81466607885440123</v>
-      </c>
-      <c r="M419" s="2">
-        <v>0.92256811504422831</v>
-      </c>
-      <c r="N419" s="2">
-        <v>0.88520971302428231</v>
-      </c>
-      <c r="O419" s="2">
-        <v>1.0556462049888313</v>
-      </c>
-      <c r="P419" s="2">
-        <v>0.82898137678442674</v>
-      </c>
-      <c r="Q419" s="2">
-        <v>0.84116763095707026</v>
-      </c>
-      <c r="R419" s="2">
-        <v>0.86394721605258251</v>
-      </c>
-      <c r="S419" s="2">
-        <v>0.82398843864998872</v>
-      </c>
-      <c r="T419" s="2">
-        <v>0.95830903630320408</v>
-      </c>
-      <c r="U419" s="2">
-        <v>0.59992353617870331</v>
-      </c>
-      <c r="V419" s="2">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="W419" s="2">
-        <v>1.0294117647058825</v>
-      </c>
-      <c r="X419" s="2">
-        <v>1.239860950173812</v>
-      </c>
-      <c r="Y419" s="2">
-        <v>1.6615384615384616</v>
-      </c>
-      <c r="Z419" s="2">
-        <v>0.95880149812734083</v>
-      </c>
-      <c r="AA419" s="2">
-        <v>1.0549815498154982</v>
-      </c>
-      <c r="AB419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC419" s="2">
-        <v>1.1046511627906976</v>
-      </c>
-      <c r="AD419" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE419" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF419" s="1">
-        <v>-2.5876945407628433</v>
-      </c>
-      <c r="AG419" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH419" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI419" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ419" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK419" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL419" s="4" t="s">
+      <c r="G419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK419" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL419" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM419" s="4" t="s">
@@ -50423,100 +50423,100 @@
       <c r="F420">
         <v>105</v>
       </c>
-      <c r="G420" s="2">
-        <v>1.0163274259802446</v>
-      </c>
-      <c r="H420" s="2">
-        <v>1.0969162995594712</v>
-      </c>
-      <c r="I420" s="2">
-        <v>0.87897323463262089</v>
-      </c>
-      <c r="J420" s="2">
-        <v>0.76832151300236395</v>
-      </c>
-      <c r="K420" s="2">
-        <v>1.728110599078341</v>
-      </c>
-      <c r="L420" s="2">
-        <v>1.0886381876577147</v>
-      </c>
-      <c r="M420" s="2">
-        <v>1.0568017459906538</v>
-      </c>
-      <c r="N420" s="2">
-        <v>0.90605427974947805</v>
-      </c>
-      <c r="O420" s="2">
-        <v>1.0148606927823296</v>
-      </c>
-      <c r="P420" s="2">
-        <v>0.94853703865854633</v>
-      </c>
-      <c r="Q420" s="2">
-        <v>0.78599074619393527</v>
-      </c>
-      <c r="R420" s="2">
-        <v>0.86011294794323923</v>
-      </c>
-      <c r="S420" s="2">
-        <v>0.84659738508208027</v>
-      </c>
-      <c r="T420" s="2">
-        <v>1.3039313631352742</v>
-      </c>
-      <c r="U420" s="2">
-        <v>1.0490605945643381</v>
-      </c>
-      <c r="V420" s="2">
-        <v>0.93999999999999984</v>
-      </c>
-      <c r="W420" s="2">
-        <v>1.0354879594423321</v>
-      </c>
-      <c r="X420" s="2">
-        <v>1.3279445727482679</v>
-      </c>
-      <c r="Y420" s="2">
-        <v>1.7839506172839505</v>
-      </c>
-      <c r="Z420" s="2">
-        <v>0.92408066429418745</v>
-      </c>
-      <c r="AA420" s="2">
-        <v>1.0800711743772242</v>
-      </c>
-      <c r="AB420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC420" s="2">
-        <v>1.1390977443609023</v>
-      </c>
-      <c r="AD420" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE420" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF420" s="1">
-        <v>-2.7820337069591154</v>
-      </c>
-      <c r="AG420" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH420" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI420" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ420" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK420" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL420" s="4" t="s">
+      <c r="G420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK420" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL420" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM420" s="4" t="s">
@@ -50542,100 +50542,100 @@
       <c r="F421">
         <v>105</v>
       </c>
-      <c r="G421" s="2">
-        <v>0.9064241522794303</v>
-      </c>
-      <c r="H421" s="2">
-        <v>1.0745614035087721</v>
-      </c>
-      <c r="I421" s="2">
-        <v>1.036389093652438</v>
-      </c>
-      <c r="J421" s="2">
-        <v>0.69733656174334135</v>
-      </c>
-      <c r="K421" s="2">
-        <v>0.58865248226950351</v>
-      </c>
-      <c r="L421" s="2">
-        <v>0.87828171466758254</v>
-      </c>
-      <c r="M421" s="2">
-        <v>1.0249952018087178</v>
-      </c>
-      <c r="N421" s="2">
-        <v>0.93306288032454354</v>
-      </c>
-      <c r="O421" s="2">
-        <v>1.0307665644155051</v>
-      </c>
-      <c r="P421" s="2">
-        <v>1.082642475992549</v>
-      </c>
-      <c r="Q421" s="2">
-        <v>0.97606414825993926</v>
-      </c>
-      <c r="R421" s="2">
-        <v>0.99226247379577948</v>
-      </c>
-      <c r="S421" s="2">
-        <v>0.99019855073143759</v>
-      </c>
-      <c r="T421" s="2">
-        <v>1.2699585270885794</v>
-      </c>
-      <c r="U421" s="2">
-        <v>1.380899650206338</v>
-      </c>
-      <c r="V421" s="2">
-        <v>0.93869346733668357</v>
-      </c>
-      <c r="W421" s="2">
-        <v>1.0750323415265202</v>
-      </c>
-      <c r="X421" s="2">
-        <v>1.2471655328798186</v>
-      </c>
-      <c r="Y421" s="2">
-        <v>1.6351351351351351</v>
-      </c>
-      <c r="Z421" s="2">
-        <v>0.9639303482587066</v>
-      </c>
-      <c r="AA421" s="2">
-        <v>1.0838235294117649</v>
-      </c>
-      <c r="AB421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC421" s="2">
-        <v>1.1346153846153846</v>
-      </c>
-      <c r="AD421" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE421" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF421" s="1">
-        <v>-3.134263365857592</v>
-      </c>
-      <c r="AG421" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH421" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI421" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ421" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK421" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL421" s="4" t="s">
+      <c r="G421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK421" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL421" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AM421" s="4" t="s">
